--- a/sriramModel-nelson-melancholic-patientID_33-sims-cort-5-iterations.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_33-sims-cort-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.891811325139003</v>
+        <v>7.892026942101436</v>
       </c>
       <c r="C2">
-        <v>7.901092987637801</v>
+        <v>7.905358611196813</v>
       </c>
       <c r="D2">
-        <v>7.872812654005524</v>
+        <v>7.902898062206116</v>
       </c>
       <c r="E2">
-        <v>7.900297582573683</v>
+        <v>7.902935470992587</v>
       </c>
       <c r="F2">
-        <v>7.881800960017436</v>
+        <v>7.868211098308907</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.981880615168808</v>
+        <v>7.980335542246884</v>
       </c>
       <c r="C3">
-        <v>7.997940948104612</v>
+        <v>8.005968846438419</v>
       </c>
       <c r="D3">
-        <v>7.944766838806738</v>
+        <v>8.001782062242809</v>
       </c>
       <c r="E3">
-        <v>7.996504557254315</v>
+        <v>8.001359975689539</v>
       </c>
       <c r="F3">
-        <v>7.960916821861833</v>
+        <v>7.935484649743551</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.070331966290905</v>
+        <v>8.065169381739015</v>
       </c>
       <c r="C4">
-        <v>8.090834686421076</v>
+        <v>8.102166642283075</v>
       </c>
       <c r="D4">
-        <v>8.016037061813547</v>
+        <v>8.096912290709891</v>
       </c>
       <c r="E4">
-        <v>8.088890019148756</v>
+        <v>8.095565668171901</v>
       </c>
       <c r="F4">
-        <v>8.037546269948844</v>
+        <v>8.001985092497151</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.157284948793196</v>
+        <v>8.146764167506252</v>
       </c>
       <c r="C5">
-        <v>8.180053236737589</v>
+        <v>8.194273544584524</v>
       </c>
       <c r="D5">
-        <v>8.086787713352077</v>
+        <v>8.188539699921899</v>
       </c>
       <c r="E5">
-        <v>8.177713147359096</v>
+        <v>8.185833920513922</v>
       </c>
       <c r="F5">
-        <v>8.111881771723199</v>
+        <v>8.067868952594797</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.24285480210904</v>
+        <v>8.225347982859697</v>
       </c>
       <c r="C6">
-        <v>8.265864679801512</v>
+        <v>8.282597108266623</v>
       </c>
       <c r="D6">
-        <v>8.157173499877132</v>
+        <v>8.276905936516528</v>
       </c>
       <c r="E6">
-        <v>8.263223472381332</v>
+        <v>8.27243567636131</v>
       </c>
       <c r="F6">
-        <v>8.184109915144187</v>
+        <v>8.133285148186969</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.327153064779749</v>
+        <v>8.301141765138688</v>
       </c>
       <c r="C7">
-        <v>8.348526615290805</v>
+        <v>8.367431743206332</v>
       </c>
       <c r="D7">
-        <v>8.227339613135477</v>
+        <v>8.362244173528898</v>
       </c>
       <c r="E7">
-        <v>8.345661637731798</v>
+        <v>8.355632236963645</v>
       </c>
       <c r="F7">
-        <v>8.254411653714504</v>
+        <v>8.198375125049756</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.410287402342274</v>
+        <v>8.374359428054728</v>
       </c>
       <c r="C8">
-        <v>8.428286496448459</v>
+        <v>8.449059269203101</v>
       </c>
       <c r="D8">
-        <v>8.297422149924556</v>
+        <v>8.444779394785733</v>
       </c>
       <c r="E8">
-        <v>8.425259581163608</v>
+        <v>8.435675435670172</v>
       </c>
       <c r="F8">
-        <v>8.322962406550648</v>
+        <v>8.263273130558433</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.492361530496417</v>
+        <v>8.445208007340472</v>
       </c>
       <c r="C9">
-        <v>8.505382000042102</v>
+        <v>8.527749424455614</v>
       </c>
       <c r="D9">
-        <v>8.3675483689697</v>
+        <v>8.524728261535474</v>
       </c>
       <c r="E9">
-        <v>8.502240717081746</v>
+        <v>8.512807817453558</v>
       </c>
       <c r="F9">
-        <v>8.389932203961902</v>
+        <v>8.328106348014501</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.573475582068296</v>
+        <v>8.513887942532552</v>
       </c>
       <c r="C10">
-        <v>8.580041427044083</v>
+        <v>8.603760427559449</v>
       </c>
       <c r="D10">
-        <v>8.437836905561818</v>
+        <v>8.602299782445639</v>
       </c>
       <c r="E10">
-        <v>8.576820362514107</v>
+        <v>8.587263151122233</v>
       </c>
       <c r="F10">
-        <v>8.455485826629863</v>
+        <v>8.392995028660099</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.653726244729043</v>
+        <v>8.580593326703159</v>
       </c>
       <c r="C11">
-        <v>8.652484107689007</v>
+        <v>8.677339480825617</v>
       </c>
       <c r="D11">
-        <v>8.508398016232134</v>
+        <v>8.677695477215405</v>
       </c>
       <c r="E11">
-        <v>8.649206034124072</v>
+        <v>8.659266729776522</v>
       </c>
       <c r="F11">
-        <v>8.519782918949405</v>
+        <v>8.458052633100637</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.733206870265029</v>
+        <v>8.645512090558807</v>
       </c>
       <c r="C12">
-        <v>8.722920739783879</v>
+        <v>8.748723229283856</v>
       </c>
       <c r="D12">
-        <v>8.579333830332013</v>
+        <v>8.751109633578119</v>
       </c>
       <c r="E12">
-        <v>8.719597708135584</v>
+        <v>8.729035649032687</v>
       </c>
       <c r="F12">
-        <v>8.582978136573727</v>
+        <v>8.523385965662072</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.812007529079304</v>
+        <v>8.70882615588372</v>
       </c>
       <c r="C13">
-        <v>8.791553691195853</v>
+        <v>8.8181381847198</v>
       </c>
       <c r="D13">
-        <v>8.650738576479236</v>
+        <v>8.822729582665776</v>
       </c>
       <c r="E13">
-        <v>8.788188077657427</v>
+        <v>8.796779085843179</v>
       </c>
       <c r="F13">
-        <v>8.645221283647428</v>
+        <v>8.589095301521468</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.890215126066881</v>
+        <v>8.770711597766299</v>
       </c>
       <c r="C14">
-        <v>8.858577311153264</v>
+        <v>8.885801174216482</v>
       </c>
       <c r="D14">
-        <v>8.722698818263465</v>
+        <v>8.892735899859034</v>
       </c>
       <c r="E14">
-        <v>8.855162868225506</v>
+        <v>8.862698588622008</v>
       </c>
       <c r="F14">
-        <v>8.70665743677899</v>
+        <v>8.655274503977472</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.967913507717267</v>
+        <v>8.831338847950411</v>
       </c>
       <c r="C15">
-        <v>8.924178244563933</v>
+        <v>8.951919789810235</v>
       </c>
       <c r="D15">
-        <v>8.79529367115617</v>
+        <v>8.961302647364077</v>
       </c>
       <c r="E15">
-        <v>8.920701087314132</v>
+        <v>8.926988529935151</v>
       </c>
       <c r="F15">
-        <v>8.767427055073322</v>
+        <v>8.722011149304263</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.045183521877933</v>
+        <v>8.890872814577921</v>
       </c>
       <c r="C16">
-        <v>8.988535737257024</v>
+        <v>9.016692766709459</v>
       </c>
       <c r="D16">
-        <v>8.868595047118518</v>
+        <v>9.028597606894378</v>
       </c>
       <c r="E16">
-        <v>8.984974829853549</v>
+        <v>8.989835702845518</v>
       </c>
       <c r="F16">
-        <v>8.827666065834645</v>
+        <v>8.789386639551445</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.122103214525479</v>
+        <v>8.94947316873249</v>
       </c>
       <c r="C17">
-        <v>9.0518219141626</v>
+        <v>9.080310328641863</v>
       </c>
       <c r="D17">
-        <v>8.942667850919682</v>
+        <v>9.094782500705252</v>
       </c>
       <c r="E17">
-        <v>9.048150166312714</v>
+        <v>9.051420295249052</v>
       </c>
       <c r="F17">
-        <v>8.887505958346487</v>
+        <v>8.857476309531775</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.198747875763612</v>
+        <v>9.00729434519215</v>
       </c>
       <c r="C18">
-        <v>9.114202076554522</v>
+        <v>9.142954537182156</v>
       </c>
       <c r="D18">
-        <v>9.017570188780905</v>
+        <v>9.160013311145127</v>
       </c>
       <c r="E18">
-        <v>9.110387118137512</v>
+        <v>9.111915832832237</v>
       </c>
       <c r="F18">
-        <v>8.947073893565847</v>
+        <v>8.926349548691485</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.275190104713793</v>
+        <v>9.064485878929574</v>
       </c>
       <c r="C19">
-        <v>9.175834902910688</v>
+        <v>9.204799636422322</v>
       </c>
       <c r="D19">
-        <v>9.093353615135587</v>
+        <v>9.224440140206907</v>
       </c>
       <c r="E19">
-        <v>9.171839889771551</v>
+        <v>9.171489705716803</v>
       </c>
       <c r="F19">
-        <v>9.006492792676944</v>
+        <v>8.996069925549369</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.351499914820705</v>
+        <v>9.121192421642332</v>
       </c>
       <c r="C20">
-        <v>9.236872793456056</v>
+        <v>9.266012390167159</v>
       </c>
       <c r="D20">
-        <v>9.170063362244488</v>
+        <v>9.288207929986616</v>
       </c>
       <c r="E20">
-        <v>9.232657084788684</v>
+        <v>9.230303080489183</v>
       </c>
       <c r="F20">
-        <v>9.065881425480759</v>
+        <v>9.066695299617715</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.427744836917427</v>
+        <v>9.177553968609578</v>
       </c>
       <c r="C21">
-        <v>9.297461993561598</v>
+        <v>9.326752375722497</v>
       </c>
       <c r="D21">
-        <v>9.247738541967346</v>
+        <v>9.351455928712818</v>
       </c>
       <c r="E21">
-        <v>9.292981735847716</v>
+        <v>9.288511145823357</v>
       </c>
       <c r="F21">
-        <v>9.125354486380646</v>
+        <v>9.138277930829895</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.503989992775265</v>
+        <v>9.233705985505569</v>
       </c>
       <c r="C22">
-        <v>9.357742919709557</v>
+        <v>9.387172328640006</v>
       </c>
       <c r="D22">
-        <v>9.326412347176674</v>
+        <v>9.414318700567142</v>
       </c>
       <c r="E22">
-        <v>9.352951613799421</v>
+        <v>9.346263340260865</v>
       </c>
       <c r="F22">
-        <v>9.185022671664502</v>
+        <v>9.210864593747607</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.580298136958747</v>
+        <v>9.289779502871976</v>
       </c>
       <c r="C23">
-        <v>9.417850322290374</v>
+        <v>9.44741839428575</v>
       </c>
       <c r="D23">
-        <v>9.406112264745111</v>
+        <v>9.476925625502021</v>
       </c>
       <c r="E23">
-        <v>9.412699420662774</v>
+        <v>9.403703535746972</v>
       </c>
       <c r="F23">
-        <v>9.244992750277513</v>
+        <v>9.284496700564265</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.656729777045559</v>
+        <v>9.345901316256915</v>
       </c>
       <c r="C24">
-        <v>9.477913515626545</v>
+        <v>9.507630364812629</v>
       </c>
       <c r="D24">
-        <v>9.486860296100438</v>
+        <v>9.539401594666993</v>
       </c>
       <c r="E24">
-        <v>9.47235297678273</v>
+        <v>9.460970330949863</v>
       </c>
       <c r="F24">
-        <v>9.305367601659668</v>
+        <v>9.359210420563382</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.733343244612646</v>
+        <v>9.402194036981458</v>
       </c>
       <c r="C25">
-        <v>9.538056610116474</v>
+        <v>9.56794193756204</v>
       </c>
       <c r="D25">
-        <v>9.568673169237329</v>
+        <v>9.601866836664405</v>
       </c>
       <c r="E25">
-        <v>9.532035399740314</v>
+        <v>9.518197204033619</v>
       </c>
       <c r="F25">
-        <v>9.366246317013466</v>
+        <v>9.435036803378368</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>9.810194765817462</v>
+        <v>9.458776284617938</v>
       </c>
       <c r="C26">
-        <v>9.598398667627512</v>
+        <v>9.628480999746658</v>
       </c>
       <c r="D26">
-        <v>9.651562541839905</v>
+        <v>9.664437244065464</v>
       </c>
       <c r="E26">
-        <v>9.591865257890282</v>
+        <v>9.575512686268912</v>
       </c>
       <c r="F26">
-        <v>9.427724192849153</v>
+        <v>9.512001892504628</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>9.887338488746799</v>
+        <v>9.515762759715164</v>
       </c>
       <c r="C27">
-        <v>9.659053934421266</v>
+        <v>9.689369853118908</v>
       </c>
       <c r="D27">
-        <v>9.735535215721729</v>
+        <v>9.727224380336617</v>
       </c>
       <c r="E27">
-        <v>9.651956741147577</v>
+        <v>9.633040535137898</v>
       </c>
       <c r="F27">
-        <v>9.489892835422864</v>
+        <v>9.590126859452768</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>9.964826606782562</v>
+        <v>9.573264393561344</v>
       </c>
       <c r="C28">
-        <v>9.720131984852474</v>
+        <v>9.750725459575586</v>
       </c>
       <c r="D28">
-        <v>9.820593331509821</v>
+        <v>9.790335736954374</v>
       </c>
       <c r="E28">
-        <v>9.712419795741665</v>
+        <v>9.690899879818756</v>
       </c>
       <c r="F28">
-        <v>9.552840150112448</v>
+        <v>9.669428119247211</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>10.04270940250327</v>
+        <v>9.631388445946977</v>
       </c>
       <c r="C29">
-        <v>9.781737908751241</v>
+        <v>9.812659636679298</v>
       </c>
       <c r="D29">
-        <v>9.906734581942935</v>
+        <v>9.85387477871067</v>
       </c>
       <c r="E29">
-        <v>9.773360293145817</v>
+        <v>9.749205394533801</v>
       </c>
       <c r="F29">
-        <v>9.616650419716413</v>
+        <v>9.74991746461993</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>10.12103531673945</v>
+        <v>9.690238618641059</v>
       </c>
       <c r="C30">
-        <v>9.843972487886159</v>
+        <v>9.875279260403593</v>
       </c>
       <c r="D30">
-        <v>9.993952402536323</v>
+        <v>9.917941137847148</v>
       </c>
       <c r="E30">
-        <v>9.834880145158603</v>
+        <v>9.808067462329168</v>
       </c>
       <c r="F30">
-        <v>9.681404299357553</v>
+        <v>9.831602193671314</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>10.1998509661769</v>
+        <v>9.749915165217487</v>
       </c>
       <c r="C31">
-        <v>9.906932328770473</v>
+        <v>9.938686472148129</v>
       </c>
       <c r="D31">
-        <v>10.08223617429367</v>
+        <v>9.982630752765138</v>
       </c>
       <c r="E31">
-        <v>9.897077454551907</v>
+        <v>9.867592324563782</v>
       </c>
       <c r="F31">
-        <v>9.747178860528617</v>
+        <v>9.914485234103712</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>10.27920126359245</v>
+        <v>9.81051497558439</v>
       </c>
       <c r="C32">
-        <v>9.970710056511209</v>
+        <v>10.00297886574307</v>
       </c>
       <c r="D32">
-        <v>10.17157142139554</v>
+        <v>10.04803597858557</v>
       </c>
       <c r="E32">
-        <v>9.960046643609337</v>
+        <v>9.927882231401361</v>
       </c>
       <c r="F32">
-        <v>9.814047601163423</v>
+        <v>9.998565281575592</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>10.35912944686415</v>
+        <v>9.872131698348618</v>
       </c>
       <c r="C33">
-        <v>10.03539443234202</v>
+        <v>10.06824966913771</v>
       </c>
       <c r="D33">
-        <v>10.26193999316092</v>
+        <v>10.11424572555237</v>
       </c>
       <c r="E33">
-        <v>10.02387857840983</v>
+        <v>9.989035573178912</v>
       </c>
       <c r="F33">
-        <v>9.882080438411858</v>
+        <v>10.08383692511441</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>10.43967712883985</v>
+        <v>9.934855794845561</v>
       </c>
       <c r="C34">
-        <v>10.10107051321172</v>
+        <v>10.13458792209436</v>
       </c>
       <c r="D34">
-        <v>10.35332026958447</v>
+        <v>10.18134556889062</v>
       </c>
       <c r="E34">
-        <v>10.08866071174738</v>
+        <v>10.05114701285197</v>
       </c>
       <c r="F34">
-        <v>9.951343752556461</v>
+        <v>10.17029078215337</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>10.52088433870505</v>
+        <v>9.998774676781029</v>
       </c>
       <c r="C35">
-        <v>10.16781978617753</v>
+        <v>10.20207864017994</v>
       </c>
       <c r="D35">
-        <v>10.44568732772597</v>
+        <v>10.24941785855292</v>
       </c>
       <c r="E35">
-        <v>10.15447717293988</v>
+        <v>10.11430761564615</v>
       </c>
       <c r="F35">
-        <v>10.02190032559535</v>
+        <v>10.25791363219978</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>10.60278960441361</v>
+        <v>10.06397273560884</v>
       </c>
       <c r="C36">
-        <v>10.2357202786715</v>
+        <v>10.270802978749</v>
       </c>
       <c r="D36">
-        <v>10.53901313958935</v>
+        <v>10.31854181277255</v>
       </c>
       <c r="E36">
-        <v>10.22140893033701</v>
+        <v>10.1786049728895</v>
       </c>
       <c r="F36">
-        <v>10.09380939511033</v>
+        <v>10.3466885470382</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>10.68542998631553</v>
+        <v>10.13053148017762</v>
       </c>
       <c r="C37">
-        <v>10.3048467196084</v>
+        <v>10.34083837678199</v>
       </c>
       <c r="D37">
-        <v>10.63326674014395</v>
+        <v>10.38879364628487</v>
       </c>
       <c r="E37">
-        <v>10.28953383258984</v>
+        <v>10.24412332214119</v>
       </c>
       <c r="F37">
-        <v>10.16712657319933</v>
+        <v>10.43659502822017</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>10.76884110968732</v>
+        <v>10.19852955561008</v>
       </c>
       <c r="C38">
-        <v>10.37527062020355</v>
+        <v>10.41225870599251</v>
       </c>
       <c r="D38">
-        <v>10.72841439681555</v>
+        <v>10.46024663251744</v>
       </c>
       <c r="E38">
-        <v>10.35892679445427</v>
+        <v>10.31094366062208</v>
       </c>
       <c r="F38">
-        <v>10.24190387857028</v>
+        <v>10.52760913673031</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>10.85305721990884</v>
+        <v>10.26804287225952</v>
       </c>
       <c r="C39">
-        <v>10.44706041965371</v>
+        <v>10.48513440891304</v>
       </c>
       <c r="D39">
-        <v>10.82441979597671</v>
+        <v>10.53297123745674</v>
       </c>
       <c r="E39">
-        <v>10.42965980339239</v>
+        <v>10.37914385427093</v>
       </c>
       <c r="F39">
-        <v>10.31818965688011</v>
+        <v>10.61970362757222</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>10.93811123619148</v>
+        <v>10.33914461342406</v>
       </c>
       <c r="C40">
-        <v>10.52028157994544</v>
+        <v>10.55953263442726</v>
       </c>
       <c r="D40">
-        <v>10.92124417639808</v>
+        <v>10.60703517610361</v>
       </c>
       <c r="E40">
-        <v>10.5018021059961</v>
+        <v>10.44879874155044</v>
       </c>
       <c r="F40">
-        <v>10.39602857020696</v>
+        <v>10.71284807785295</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>11.02403478672558</v>
+        <v>10.41190535541828</v>
       </c>
       <c r="C41">
-        <v>10.59499668551102</v>
+        <v>10.63551736024735</v>
       </c>
       <c r="D41">
-        <v>11.01884651920703</v>
+        <v>10.68250352935638</v>
       </c>
       <c r="E41">
-        <v>10.57542021351924</v>
+        <v>10.51998023461148</v>
       </c>
       <c r="F41">
-        <v>10.47546153861832</v>
+        <v>10.80700901962456</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>11.11085822902924</v>
+        <v>10.48639306296562</v>
       </c>
       <c r="C42">
-        <v>10.67126556739711</v>
+        <v>10.71314951421633</v>
       </c>
       <c r="D42">
-        <v>11.1171836694249</v>
+        <v>10.75943879823424</v>
       </c>
       <c r="E42">
-        <v>10.65057806450476</v>
+        <v>10.59275741193488</v>
       </c>
       <c r="F42">
-        <v>10.5565256597081</v>
+        <v>10.90215006269183</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>11.19861070224922</v>
+        <v>10.56267319600176</v>
       </c>
       <c r="C43">
-        <v>10.74914536183429</v>
+        <v>10.79248708696543</v>
       </c>
       <c r="D43">
-        <v>11.21621050024466</v>
+        <v>10.83790100234132</v>
       </c>
       <c r="E43">
-        <v>10.72733704233931</v>
+        <v>10.66719660972707</v>
       </c>
       <c r="F43">
-        <v>10.63925419533803</v>
+        <v>10.998232020235</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>11.2873201744456</v>
+        <v>10.64080869536021</v>
       </c>
       <c r="C44">
-        <v>10.82869063285969</v>
+        <v>10.87358524269953</v>
       </c>
       <c r="D44">
-        <v>11.31588004822165</v>
+        <v>10.91794773598387</v>
       </c>
       <c r="E44">
-        <v>10.80575611243739</v>
+        <v>10.74336150748815</v>
       </c>
       <c r="F44">
-        <v>10.72367641459308</v>
+        <v>11.09521303284674</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>11.37701347222096</v>
+        <v>10.72086006711463</v>
       </c>
       <c r="C45">
-        <v>10.90995343267184</v>
+        <v>10.956496417702</v>
       </c>
       <c r="D45">
-        <v>11.4161436367297</v>
+        <v>10.99963423665884</v>
       </c>
       <c r="E45">
-        <v>10.88589184144933</v>
+        <v>10.82131320863218</v>
       </c>
       <c r="F45">
-        <v>10.80981759600714</v>
+        <v>11.19304867559921</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>11.46771630012131</v>
+        <v>10.80288536205571</v>
       </c>
       <c r="C46">
-        <v>10.992983388644</v>
+        <v>11.04127041697629</v>
       </c>
       <c r="D46">
-        <v>11.51695099888743</v>
+        <v>11.08301346094203</v>
       </c>
       <c r="E46">
-        <v>10.96779852587512</v>
+        <v>10.90111031700332</v>
       </c>
       <c r="F46">
-        <v>10.8976988371128</v>
+        <v>11.29169208769131</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>11.55945327079776</v>
+        <v>10.88694022341051</v>
       </c>
       <c r="C47">
-        <v>11.07782778749082</v>
+        <v>11.12795450316734</v>
       </c>
       <c r="D47">
-        <v>11.6182503889932</v>
+        <v>11.16813610942841</v>
       </c>
       <c r="E47">
-        <v>11.05152819746214</v>
+        <v>10.98280900518872</v>
       </c>
       <c r="F47">
-        <v>10.98733702809789</v>
+        <v>11.39109405849643</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>11.65224793615456</v>
+        <v>10.97307786637603</v>
       </c>
       <c r="C48">
-        <v>11.16453161828741</v>
+        <v>11.21659348144093</v>
       </c>
       <c r="D48">
-        <v>11.71998869614599</v>
+        <v>11.25505072274968</v>
       </c>
       <c r="E48">
-        <v>11.13713071010113</v>
+        <v>11.06646307974512</v>
       </c>
       <c r="F48">
-        <v>11.07874466002507</v>
+        <v>11.49120313753827</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>11.74612281353241</v>
+        <v>11.06134909609376</v>
       </c>
       <c r="C49">
-        <v>11.25313766572167</v>
+        <v>11.30722977294443</v>
       </c>
       <c r="D49">
-        <v>11.82211153682224</v>
+        <v>11.34380367252961</v>
       </c>
       <c r="E49">
-        <v>11.22465378637358</v>
+        <v>11.15212403882014</v>
       </c>
       <c r="F49">
-        <v>11.17192973541582</v>
+        <v>11.59196572712335</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>11.84109940712487</v>
+        <v>11.15180222093035</v>
       </c>
       <c r="C50">
-        <v>11.34368653625493</v>
+        <v>11.39990348265601</v>
       </c>
       <c r="D50">
-        <v>11.92456333983448</v>
+        <v>11.43443925891469</v>
       </c>
       <c r="E50">
-        <v>11.31414306961888</v>
+        <v>11.23984112549403</v>
       </c>
       <c r="F50">
-        <v>11.26689560739499</v>
+        <v>11.69332616851319</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>11.93719822618036</v>
+        <v>11.2444830230745</v>
       </c>
       <c r="C51">
-        <v>11.43621673411716</v>
+        <v>11.49465245952325</v>
       </c>
       <c r="D51">
-        <v>12.02728742383929</v>
+        <v>11.52699968164841</v>
       </c>
       <c r="E51">
-        <v>11.4056421606615</v>
+        <v>11.32966136962588</v>
       </c>
       <c r="F51">
-        <v>11.36364078216577</v>
+        <v>11.79522682109426</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>12.0344387996964</v>
+        <v>11.33943467470858</v>
       </c>
       <c r="C52">
-        <v>11.5307646737041</v>
+        <v>11.59151234911364</v>
       </c>
       <c r="D52">
-        <v>12.1302260561165</v>
+        <v>11.62152508443757</v>
       </c>
       <c r="E52">
-        <v>11.49919264817832</v>
+        <v>11.42162962294129</v>
       </c>
       <c r="F52">
-        <v>11.4621588276475</v>
+        <v>11.89760812859844</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>12.13283968739515</v>
+        <v>11.43669764536618</v>
       </c>
       <c r="C53">
-        <v>11.62736472244788</v>
+        <v>11.69051663309972</v>
       </c>
       <c r="D53">
-        <v>12.23332050848789</v>
+        <v>11.71805355850237</v>
       </c>
       <c r="E53">
-        <v>11.59483413452309</v>
+        <v>11.51578858412107</v>
       </c>
       <c r="F53">
-        <v>11.56243805503198</v>
+        <v>12.00040867854591</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>12.23241848583729</v>
+        <v>11.53630953381261</v>
       </c>
       <c r="C54">
-        <v>11.72604922419146</v>
+        <v>11.79169665487318</v>
       </c>
       <c r="D54">
-        <v>12.33651110032126</v>
+        <v>11.81662114262683</v>
       </c>
       <c r="E54">
-        <v>11.69260423621835</v>
+        <v>11.61217881079224</v>
       </c>
       <c r="F54">
-        <v>11.66446145246274</v>
+        <v>12.10356525241794</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>12.33319182867515</v>
+        <v>11.63830486074537</v>
       </c>
       <c r="C55">
-        <v>11.82684850674245</v>
+        <v>11.89508163281224</v>
       </c>
       <c r="D55">
-        <v>12.43973722825374</v>
+        <v>11.91726179989237</v>
       </c>
       <c r="E55">
-        <v>11.79253858464334</v>
+        <v>11.71083872226017</v>
       </c>
       <c r="F55">
-        <v>11.76820631262236</v>
+        <v>12.20701286390876</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>12.43517537815831</v>
+        <v>11.74271481631219</v>
       </c>
       <c r="C56">
-        <v>11.92979087642755</v>
+        <v>12.00069866574362</v>
       </c>
       <c r="D56">
-        <v>12.54293739088293</v>
+        <v>12.02000737525044</v>
       </c>
       <c r="E56">
-        <v>11.89467080951516</v>
+        <v>11.81180457432466</v>
       </c>
       <c r="F56">
-        <v>11.87364412250946</v>
+        <v>12.31068479108491</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>12.53838380623938</v>
+        <v>11.84956696498514</v>
       </c>
       <c r="C57">
-        <v>12.03490259323387</v>
+        <v>12.10857268576934</v>
       </c>
       <c r="D57">
-        <v>12.64604919698674</v>
+        <v>12.12488753315259</v>
       </c>
       <c r="E57">
-        <v>11.99903249979242</v>
+        <v>11.91511042017415</v>
       </c>
       <c r="F57">
-        <v>11.98074019023279</v>
+        <v>12.41451259816242</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>12.64283076938959</v>
+        <v>11.95888473502034</v>
       </c>
       <c r="C58">
-        <v>12.14220781992845</v>
+        <v>12.21872641155047</v>
       </c>
       <c r="D58">
-        <v>12.74900936628363</v>
+        <v>12.23192966859988</v>
       </c>
       <c r="E58">
-        <v>12.10565313320256</v>
+        <v>12.02078803845524</v>
       </c>
       <c r="F58">
-        <v>12.08945343833335</v>
+        <v>12.51842615071742</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>12.74852885831496</v>
+        <v>12.07068689463896</v>
       </c>
       <c r="C59">
-        <v>12.25172854998367</v>
+        <v>12.33118025215791</v>
       </c>
       <c r="D59">
-        <v>12.8517537274567</v>
+        <v>12.34115876905321</v>
       </c>
       <c r="E59">
-        <v>12.21455998945075</v>
+        <v>12.12886683552674</v>
       </c>
       <c r="F59">
-        <v>12.19973608095629</v>
+        <v>12.62235362486362</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>12.85548953292003</v>
+        <v>12.18498688017573</v>
       </c>
       <c r="C60">
-        <v>12.36348449762265</v>
+        <v>12.44595216764609</v>
       </c>
       <c r="D60">
-        <v>12.95421721912237</v>
+        <v>12.4525972431998</v>
       </c>
       <c r="E60">
-        <v>12.3257779868016</v>
+        <v>12.2393736913361</v>
       </c>
       <c r="F60">
-        <v>12.31153326277185</v>
+        <v>12.72622151746991</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>12.96372303157537</v>
+        <v>12.30179193271399</v>
       </c>
       <c r="C61">
-        <v>12.47749293732446</v>
+        <v>12.56305746104237</v>
       </c>
       <c r="D61">
-        <v>13.0563338911307</v>
+        <v>12.56626467524845</v>
       </c>
       <c r="E61">
-        <v>12.43932949820155</v>
+        <v>12.35233274414789</v>
       </c>
       <c r="F61">
-        <v>12.42478284334755</v>
+        <v>12.82995466810223</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>13.07323823693331</v>
+        <v>12.42110199594749</v>
       </c>
       <c r="C62">
-        <v>12.59376852078969</v>
+        <v>12.68250847957547</v>
       </c>
       <c r="D62">
-        <v>13.15803691459794</v>
+        <v>12.68217754516019</v>
       </c>
       <c r="E62">
-        <v>12.55523407270554</v>
+        <v>12.46776510167887</v>
       </c>
       <c r="F62">
-        <v>12.53941490908534</v>
+        <v>12.93347629155032</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>13.18404249547721</v>
+        <v>12.54290834132174</v>
       </c>
       <c r="C63">
-        <v>12.7123229271024</v>
+        <v>12.80431419910318</v>
       </c>
       <c r="D63">
-        <v>13.25925861284593</v>
+        <v>12.80034879826016</v>
       </c>
       <c r="E63">
-        <v>12.67350807875438</v>
+        <v>12.58568848224388</v>
       </c>
       <c r="F63">
-        <v>12.65535147889932</v>
+        <v>13.03670803298307</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>13.29614136672565</v>
+        <v>12.66719186844512</v>
       </c>
       <c r="C64">
-        <v>12.83316447984179</v>
+        <v>12.92847965697199</v>
       </c>
       <c r="D64">
-        <v>13.35993052251193</v>
+        <v>12.92078729273941</v>
       </c>
       <c r="E64">
-        <v>12.79416420084897</v>
+        <v>12.70611659627407</v>
       </c>
       <c r="F64">
-        <v>12.77250610752854</v>
+        <v>13.13957006125811</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>13.40953826472087</v>
+        <v>12.79392101061793</v>
       </c>
       <c r="C65">
-        <v>12.95629760837</v>
+        <v>13.05500509890707</v>
       </c>
       <c r="D65">
-        <v>13.45998349559361</v>
+        <v>13.04349704419138</v>
       </c>
       <c r="E65">
-        <v>12.91721075467084</v>
+        <v>12.82905843459806</v>
       </c>
       <c r="F65">
-        <v>12.89078354168077</v>
+        <v>13.24198121344956</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>13.52423397571999</v>
+        <v>12.92304917234006</v>
       </c>
       <c r="C66">
-        <v>13.08172210053715</v>
+        <v>13.18388486855439</v>
       </c>
       <c r="D66">
-        <v>13.55934785145346</v>
+        <v>13.16847629885545</v>
       </c>
       <c r="E66">
-        <v>13.04265077893322</v>
+        <v>12.95451729838435</v>
       </c>
       <c r="F66">
-        <v>13.01007934070477</v>
+        <v>13.34385920253938</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>13.64022596457268</v>
+        <v>13.05451163641173</v>
       </c>
       <c r="C67">
-        <v>13.20943208455202</v>
+        <v>13.31510584317959</v>
       </c>
       <c r="D67">
-        <v>13.65795358487142</v>
+        <v>13.29571627634206</v>
       </c>
       <c r="E67">
-        <v>13.17048069440576</v>
+        <v>13.08248942325233</v>
       </c>
       <c r="F67">
-        <v>13.13027952582071</v>
+        <v>13.44512089899143</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>13.75750739937204</v>
+        <v>13.18822190032099</v>
       </c>
       <c r="C68">
-        <v>13.33941462765794</v>
+        <v>13.44864521353091</v>
       </c>
       <c r="D68">
-        <v>13.75573063871265</v>
+        <v>13.42519951176437</v>
       </c>
       <c r="E68">
-        <v>13.30068859313526</v>
+        <v>13.21296204093176</v>
       </c>
       <c r="F68">
-        <v>13.25126023855166</v>
+        <v>13.54568268873284</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>13.87606577219371</v>
+        <v>13.32406744184539</v>
       </c>
       <c r="C69">
-        <v>13.47164774099478</v>
+        <v>13.58446747871259</v>
       </c>
       <c r="D69">
-        <v>13.85260924619958</v>
+        <v>13.55689752684183</v>
       </c>
       <c r="E69">
-        <v>13.43325186199047</v>
+        <v>13.34591090074336</v>
       </c>
       <c r="F69">
-        <v>13.37288746262587</v>
+        <v>13.64546092491052</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>13.99588092070794</v>
+        <v>13.46190501907085</v>
       </c>
       <c r="C70">
-        <v>13.60609775851007</v>
+        <v>13.72252029637865</v>
       </c>
       <c r="D70">
-        <v>13.94852029439314</v>
+        <v>13.69076784399719</v>
       </c>
       <c r="E70">
-        <v>13.56813387745479</v>
+        <v>13.48129680790692</v>
       </c>
       <c r="F70">
-        <v>13.49501680427759</v>
+        <v>13.74437242701898</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>14.1169222898707</v>
+        <v>13.60155549296255</v>
       </c>
       <c r="C71">
-        <v>13.74271559670428</v>
+        <v>13.86272899595823</v>
       </c>
       <c r="D71">
-        <v>14.04339573525595</v>
+        <v>13.82675008208433</v>
       </c>
       <c r="E71">
-        <v>13.70527950566899</v>
+        <v>13.61906099428717</v>
       </c>
       <c r="F71">
-        <v>13.6174934226297</v>
+        <v>13.84233502807554</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>14.23914508218315</v>
+        <v>13.74279886028598</v>
       </c>
       <c r="C72">
-        <v>13.88143166312575</v>
+        <v>14.00498932934087</v>
       </c>
       <c r="D72">
-        <v>14.13716900582724</v>
+        <v>13.9647607496632</v>
       </c>
       <c r="E72">
-        <v>13.84460912164541</v>
+        <v>13.75911904585814</v>
       </c>
       <c r="F72">
-        <v>13.74015203836802</v>
+        <v>13.93926815021618</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>14.36248498215747</v>
+        <v>13.8853698829905</v>
       </c>
       <c r="C73">
-        <v>14.02214887129761</v>
+        <v>14.14915843541567</v>
       </c>
       <c r="D73">
-        <v>14.22977542718074</v>
+        <v>14.10468650569103</v>
       </c>
       <c r="E73">
-        <v>13.98601062560676</v>
+        <v>13.90135307886705</v>
       </c>
       <c r="F73">
-        <v>13.8628171162538</v>
+        <v>14.03509335968915</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>14.48685121761739</v>
+        <v>14.02895484219853</v>
       </c>
       <c r="C74">
-        <v>14.16473348705091</v>
+        <v>14.29504421737234</v>
       </c>
       <c r="D74">
-        <v>14.321152569519</v>
+        <v>14.24637572184577</v>
       </c>
       <c r="E74">
-        <v>14.12932935967645</v>
+        <v>14.04560211889419</v>
       </c>
       <c r="F74">
-        <v>13.98530328052068</v>
+        <v>14.12973487656344</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>14.61211772395072</v>
+        <v>14.1731905192128</v>
       </c>
       <c r="C75">
-        <v>14.30900330539025</v>
+        <v>14.44239353208672</v>
       </c>
       <c r="D75">
-        <v>14.41124057525462</v>
+        <v>14.38962826971649</v>
       </c>
       <c r="E75">
-        <v>14.27435577054345</v>
+        <v>14.19165080061035</v>
       </c>
       <c r="F75">
-        <v>14.10741600354167</v>
+        <v>14.22312003187151</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>14.73811268291248</v>
+        <v>14.3176665052549</v>
       </c>
       <c r="C76">
-        <v>14.45471354949469</v>
+        <v>14.59088070746086</v>
       </c>
       <c r="D76">
-        <v>14.4999824189815</v>
+        <v>14.53418388823026</v>
       </c>
       <c r="E76">
-        <v>14.42081157016677</v>
+        <v>14.33921727639188</v>
       </c>
       <c r="F76">
-        <v>14.22895260769181</v>
+        <v>14.31517964415441</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>14.86460725497777</v>
+        <v>14.46193094694997</v>
       </c>
       <c r="C77">
-        <v>14.6015413762765</v>
+        <v>14.74009841095059</v>
       </c>
       <c r="D77">
-        <v>14.58732410320094</v>
+        <v>14.67971018841509</v>
       </c>
       <c r="E77">
-        <v>14.56833632766798</v>
+        <v>14.48794185924779</v>
       </c>
       <c r="F77">
-        <v>14.34970362383408</v>
+        <v>14.40584830464935</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>14.9913052320931</v>
+        <v>14.60550052103793</v>
       </c>
       <c r="C78">
-        <v>14.74907196443363</v>
+        <v>14.88955367808585</v>
       </c>
       <c r="D78">
-        <v>14.67321480138836</v>
+        <v>14.82579257495321</v>
       </c>
       <c r="E78">
-        <v>14.71647692640194</v>
+        <v>14.63737906997802</v>
       </c>
       <c r="F78">
-        <v>14.46945454044122</v>
+        <v>14.49506458977347</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>15.11783634312502</v>
+        <v>14.74787398475365</v>
       </c>
       <c r="C79">
-        <v>14.89678976078439</v>
+        <v>15.03867199593218</v>
       </c>
       <c r="D79">
-        <v>14.75760694476909</v>
+        <v>14.97192905728939</v>
       </c>
       <c r="E79">
-        <v>14.86468438990575</v>
+        <v>14.78699602660515</v>
       </c>
       <c r="F79">
-        <v>14.58798795230172</v>
+        <v>14.58277119367185</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>15.24375652407275</v>
+        <v>14.88854812388259</v>
       </c>
       <c r="C80">
-        <v>15.04408045502164</v>
+        <v>15.18681145410915</v>
       </c>
       <c r="D80">
-        <v>14.84045626298993</v>
+        <v>15.11753363071061</v>
       </c>
       <c r="E80">
-        <v>15.01232205349438</v>
+        <v>14.93618037597795</v>
       </c>
       <c r="F80">
-        <v>14.70508608261668</v>
+        <v>14.66891499577888</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>15.36855803836407</v>
+        <v>15.02703443626222</v>
       </c>
       <c r="C81">
-        <v>15.19024778520989</v>
+        <v>15.33328699860827</v>
       </c>
       <c r="D81">
-        <v>14.92172178461703</v>
+        <v>15.26195143489458</v>
       </c>
       <c r="E81">
-        <v>15.1586875818118</v>
+        <v>15.084259333152</v>
       </c>
       <c r="F81">
-        <v>14.8205336118077</v>
+        <v>14.75344706939404</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>15.49169038553728</v>
+        <v>15.16287464105671</v>
       </c>
       <c r="C82">
-        <v>15.3345461426041</v>
+        <v>15.47740218028272</v>
       </c>
       <c r="D82">
-        <v>15.00136580307126</v>
+        <v>15.40448615059116</v>
       </c>
       <c r="E82">
-        <v>15.30304767139435</v>
+        <v>15.23052883403972</v>
       </c>
       <c r="F82">
-        <v>14.93412069277278</v>
+        <v>14.83632264326446</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>15.61258979564029</v>
+        <v>15.29565338738918</v>
       </c>
       <c r="C83">
-        <v>15.47622462722145</v>
+        <v>15.61848355718985</v>
       </c>
       <c r="D83">
-        <v>15.07935382357094</v>
+        <v>15.54443667250624</v>
       </c>
       <c r="E83">
-        <v>15.4446800117176</v>
+        <v>15.37428881605765</v>
       </c>
       <c r="F83">
-        <v>15.04564607778037</v>
+        <v>14.91750102579313</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>15.73071210845742</v>
+        <v>15.42500712626917</v>
       </c>
       <c r="C84">
-        <v>15.61457375167357</v>
+        <v>15.75591213146892</v>
       </c>
       <c r="D84">
-        <v>15.15565448824836</v>
+        <v>15.68113651550967</v>
       </c>
       <c r="E84">
-        <v>15.58291414407916</v>
+        <v>15.51487862757743</v>
       </c>
       <c r="F84">
-        <v>15.154919995234</v>
+        <v>14.99694550846387</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>15.84556262011697</v>
+        <v>15.55062884057235</v>
       </c>
       <c r="C85">
-        <v>15.7489650000144</v>
+        <v>15.88914724481275</v>
       </c>
       <c r="D85">
-        <v>15.23023947933197</v>
+        <v>15.81398844026373</v>
       </c>
       <c r="E85">
-        <v>15.71716374633992</v>
+        <v>15.65170666923171</v>
       </c>
       <c r="F85">
-        <v>15.26176678726042</v>
+        <v>15.07462323635923</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>15.95671775846223</v>
+        <v>15.67226903127647</v>
       </c>
       <c r="C86">
-        <v>15.87887646027798</v>
+        <v>16.01774063436302</v>
       </c>
       <c r="D86">
-        <v>15.30308341417201</v>
+        <v>15.94248848283127</v>
       </c>
       <c r="E86">
-        <v>15.84694590389706</v>
+        <v>15.7842702858612</v>
       </c>
       <c r="F86">
-        <v>15.36602709875501</v>
+        <v>15.15050506274153</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>16.06383633092661</v>
+        <v>15.78973353984233</v>
       </c>
       <c r="C87">
-        <v>16.00390279285134</v>
+        <v>16.14134084414597</v>
       </c>
       <c r="D87">
-        <v>15.37416373676704</v>
+        <v>16.06623720482494</v>
       </c>
       <c r="E87">
-        <v>15.97188738610559</v>
+        <v>15.91216486434193</v>
       </c>
       <c r="F87">
-        <v>15.46755945665719</v>
+        <v>15.22456539600112</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>16.16666106828967</v>
+        <v>15.90287933988751</v>
       </c>
       <c r="C88">
-        <v>16.12375200937864</v>
+        <v>16.25968974553671</v>
       </c>
       <c r="D88">
-        <v>15.4434606050039</v>
+        <v>16.18493937590284</v>
       </c>
       <c r="E88">
-        <v>16.09171938207432</v>
+        <v>16.03508343809082</v>
       </c>
       <c r="F88">
-        <v>15.56624119072707</v>
+        <v>15.29678204351925</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>16.26501301872408</v>
+        <v>16.01160903837622</v>
       </c>
       <c r="C89">
-        <v>16.23823370412412</v>
+        <v>16.37261393886815</v>
       </c>
       <c r="D89">
-        <v>15.51095677263867</v>
+        <v>16.29839544379661</v>
       </c>
       <c r="E89">
-        <v>16.20626610905922</v>
+        <v>16.152809504493</v>
       </c>
       <c r="F89">
-        <v>15.6619687491341</v>
+        <v>15.36713605023104</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>16.35878177891096</v>
+        <v>16.11586484615512</v>
       </c>
       <c r="C90">
-        <v>16.34724315872029</v>
+        <v>16.48001338363806</v>
       </c>
       <c r="D90">
-        <v>15.57663746869935</v>
+        <v>16.4064884800802</v>
       </c>
       <c r="E90">
-        <v>16.3154304611614</v>
+        <v>16.26520595225322</v>
       </c>
       <c r="F90">
-        <v>15.7546574355766</v>
+        <v>15.43561153300527</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>16.44791411739061</v>
+        <v>16.21562259365441</v>
       </c>
       <c r="C91">
-        <v>16.45074471381223</v>
+        <v>16.58184924406844</v>
       </c>
       <c r="D91">
-        <v>15.64049027735076</v>
+        <v>16.50916961039316</v>
       </c>
       <c r="E91">
-        <v>16.41917897198047</v>
+        <v>16.37220247250953</v>
       </c>
       <c r="F91">
-        <v>15.84424064054567</v>
+        <v>15.50219551510063</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>16.53240273498535</v>
+        <v>16.3108860496854</v>
       </c>
       <c r="C92">
-        <v>16.54875644651073</v>
+        <v>16.67813224642877</v>
       </c>
       <c r="D92">
-        <v>15.70250502119269</v>
+        <v>16.60644398664241</v>
       </c>
       <c r="E92">
-        <v>16.51752808771664</v>
+        <v>16.47378318422384</v>
       </c>
       <c r="F92">
-        <v>15.93066873816036</v>
+        <v>15.56687776366895</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>16.61227614989987</v>
+        <v>16.40168185494811</v>
       </c>
       <c r="C93">
-        <v>16.64133701893307</v>
+        <v>16.7689122283059</v>
       </c>
       <c r="D93">
-        <v>15.76267364635111</v>
+        <v>16.69835839977875</v>
       </c>
       <c r="E93">
-        <v>16.61053238336035</v>
+        <v>16.56997529401579</v>
       </c>
       <c r="F93">
-        <v>16.01390773407365</v>
+        <v>15.62965063405203</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>16.68759012734925</v>
+        <v>16.48805506057816</v>
       </c>
       <c r="C94">
-        <v>16.72857494070956</v>
+        <v>16.85426918807588</v>
       </c>
       <c r="D94">
-        <v>15.82099010788862</v>
+        <v>16.78499085103011</v>
       </c>
       <c r="E94">
-        <v>16.69827480458657</v>
+        <v>16.66083937357116</v>
       </c>
       <c r="F94">
-        <v>16.093937771558</v>
+        <v>15.69050891358952</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>16.75842064848966</v>
+        <v>16.57006526283851</v>
       </c>
       <c r="C95">
-        <v>16.81057993499948</v>
+        <v>16.93430574939265</v>
       </c>
       <c r="D95">
-        <v>15.87745025969333</v>
+        <v>16.86644200531784</v>
       </c>
       <c r="E95">
-        <v>16.78085886821634</v>
+        <v>16.74646120100987</v>
       </c>
       <c r="F95">
-        <v>16.17075158706136</v>
+        <v>15.74944967198032</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>16.82485815222056</v>
+        <v>16.64778343424585</v>
       </c>
       <c r="C96">
-        <v>16.88747645987912</v>
+        <v>17.00914105304071</v>
       </c>
       <c r="D96">
-        <v>15.93205174761561</v>
+        <v>16.94282865339857</v>
       </c>
       <c r="E96">
-        <v>16.85840262068961</v>
+        <v>16.82694512621812</v>
       </c>
       <c r="F96">
-        <v>16.24435300711714</v>
+        <v>15.80647211674837</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>16.88700327058588</v>
+        <v>16.72128927285542</v>
       </c>
       <c r="C97">
-        <v>16.95939891158723</v>
+        <v>17.07890612671947</v>
       </c>
       <c r="D97">
-        <v>15.98479390631961</v>
+        <v>17.01427864694678</v>
       </c>
       <c r="E97">
-        <v>16.93103394584507</v>
+        <v>16.90240897829241</v>
       </c>
       <c r="F97">
-        <v>16.31475549143796</v>
+        <v>15.86157745459608</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>16.94496360137976</v>
+        <v>16.79066900005845</v>
       </c>
       <c r="C98">
-        <v>17.02648774652577</v>
+        <v>17.14373998971216</v>
       </c>
       <c r="D98">
-        <v>16.03567765979738</v>
+        <v>17.08092697261738</v>
       </c>
       <c r="E98">
-        <v>16.99888699643199</v>
+        <v>16.97297986584365</v>
       </c>
       <c r="F98">
-        <v>16.38198077896202</v>
+        <v>15.91476875843431</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>16.99885108119178</v>
+        <v>16.85601354023703</v>
       </c>
       <c r="C99">
-        <v>17.08888658311702</v>
+        <v>17.20378662795126</v>
       </c>
       <c r="D99">
-        <v>16.08470542565325</v>
+        <v>17.14291272086766</v>
       </c>
       <c r="E99">
-        <v>17.06209950266888</v>
+        <v>17.03879091783936</v>
       </c>
       <c r="F99">
-        <v>16.44605766909725</v>
+        <v>15.96605084014038</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>17.0487799828311</v>
+        <v>16.91741708073365</v>
       </c>
       <c r="C100">
-        <v>17.1467402150064</v>
+        <v>17.259192686332</v>
       </c>
       <c r="D100">
-        <v>16.13188102472729</v>
+        <v>17.20037688012763</v>
       </c>
       <c r="E100">
-        <v>17.12081075895501</v>
+        <v>17.09997886072914</v>
       </c>
       <c r="F100">
-        <v>16.50702091683618</v>
+        <v>16.01543013012096</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>17.09486543536249</v>
+        <v>16.97497590608097</v>
       </c>
       <c r="C101">
-        <v>17.20019312052085</v>
+        <v>17.31010573731458</v>
       </c>
       <c r="D101">
-        <v>16.17720958992303</v>
+        <v>17.25346074068725</v>
       </c>
       <c r="E101">
-        <v>17.17516012012656</v>
+        <v>17.1566821158757</v>
       </c>
       <c r="F101">
-        <v>16.56491023211079</v>
+        <v>16.0629145608784</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>17.13722238987366</v>
+        <v>17.0287874354018</v>
       </c>
       <c r="C102">
-        <v>17.24938833305587</v>
+        <v>17.35667291936497</v>
       </c>
       <c r="D102">
-        <v>16.22069748611123</v>
+        <v>17.3023046669797</v>
       </c>
       <c r="E102">
-        <v>17.22528589510453</v>
+        <v>17.20903933094106</v>
       </c>
       <c r="F102">
-        <v>16.61976940664188</v>
+        <v>16.10851345995561</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>17.17596482485158</v>
+        <v>17.07894948825578</v>
       </c>
       <c r="C103">
-        <v>17.29446663720458</v>
+        <v>17.39903991475652</v>
       </c>
       <c r="D103">
-        <v>16.26235222306698</v>
+        <v>17.34704720473352</v>
       </c>
       <c r="E103">
-        <v>17.27132453862338</v>
+        <v>17.2571883118863</v>
       </c>
       <c r="F103">
-        <v>16.67164556925779</v>
+        <v>16.15223743185564</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>17.2112051373147</v>
+        <v>17.12555969100717</v>
       </c>
       <c r="C104">
-        <v>17.33556603134219</v>
+        <v>17.43735019955176</v>
       </c>
       <c r="D104">
-        <v>16.30218238311108</v>
+        <v>17.38782443465026</v>
       </c>
       <c r="E104">
-        <v>17.31341007646452</v>
+        <v>17.30126522015284</v>
       </c>
       <c r="F104">
-        <v>16.72058854602906</v>
+        <v>16.19409827942826</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>17.24305370980679</v>
+        <v>17.16871499890234</v>
       </c>
       <c r="C105">
-        <v>17.37282133828393</v>
+        <v>17.47174447356456</v>
       </c>
       <c r="D105">
-        <v>16.34019755313315</v>
+        <v>17.42476954832875</v>
       </c>
       <c r="E105">
-        <v>17.35167366350512</v>
+        <v>17.34140396462904</v>
       </c>
       <c r="F105">
-        <v>16.76665028573131</v>
+        <v>16.23410889510168</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>17.27161862409441</v>
+        <v>17.20851132141501</v>
       </c>
       <c r="C106">
-        <v>17.40636392877816</v>
+        <v>17.50236025700181</v>
       </c>
       <c r="D106">
-        <v>16.37640824565081</v>
+        <v>17.45801253887208</v>
       </c>
       <c r="E106">
-        <v>17.38624331504194</v>
+        <v>17.37773575567013</v>
       </c>
       <c r="F106">
-        <v>16.80988436832639</v>
+        <v>16.27228317911077</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>17.2970054380187</v>
+        <v>17.24504323660803</v>
       </c>
       <c r="C107">
-        <v>17.43632158026391</v>
+        <v>17.52933162334707</v>
       </c>
       <c r="D107">
-        <v>16.4108258423141</v>
+        <v>17.48767999528802</v>
       </c>
       <c r="E107">
-        <v>17.41724374103996</v>
+        <v>17.41038880453647</v>
       </c>
       <c r="F107">
-        <v>16.85034557258941</v>
+        <v>16.30863596312479</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>17.31931705704745</v>
+        <v>17.2784037706196</v>
       </c>
       <c r="C108">
-        <v>17.46281838704524</v>
+        <v>17.55278900946152</v>
       </c>
       <c r="D108">
-        <v>16.44346252709576</v>
+        <v>17.51389497526637</v>
       </c>
       <c r="E108">
-        <v>17.4447962212866</v>
+        <v>17.43948810742213</v>
       </c>
       <c r="F108">
-        <v>16.88808952151446</v>
+        <v>16.34318291848407</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>17.33865365675651</v>
+        <v>17.30868422828759</v>
       </c>
       <c r="C109">
-        <v>17.48597471662718</v>
+        <v>17.57285909109242</v>
       </c>
       <c r="D109">
-        <v>16.47433122379576</v>
+        <v>17.53677694268093</v>
       </c>
       <c r="E109">
-        <v>17.46901852557877</v>
+        <v>17.46515531167784</v>
       </c>
       <c r="F109">
-        <v>16.92317238075955</v>
+        <v>16.37594048777279</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>17.35511263754186</v>
+        <v>17.33597406625764</v>
       </c>
       <c r="C110">
-        <v>17.5059072101111</v>
+        <v>17.58966472444586</v>
       </c>
       <c r="D110">
-        <v>16.50344554537153</v>
+        <v>17.55644175316078</v>
       </c>
       <c r="E110">
-        <v>17.49002490951288</v>
+        <v>17.48750862773162</v>
       </c>
       <c r="F110">
-        <v>16.95565059906084</v>
+        <v>16.40692581823658</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>17.36878860828531</v>
+        <v>17.36036080611701</v>
       </c>
       <c r="C111">
-        <v>17.52272881904001</v>
+        <v>17.60332492986481</v>
       </c>
       <c r="D111">
-        <v>16.53081974037315</v>
+        <v>17.57300166344265</v>
       </c>
       <c r="E111">
-        <v>17.50792612975775</v>
+        <v>17.50666277867498</v>
       </c>
       <c r="F111">
-        <v>16.98558068596028</v>
+        <v>16.43615668674065</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>17.37977339560988</v>
+        <v>17.38192997148149</v>
       </c>
       <c r="C112">
-        <v>17.53654885384824</v>
+        <v>17.6139549067698</v>
       </c>
       <c r="D112">
-        <v>16.55646863714305</v>
+        <v>17.5865653554104</v>
       </c>
       <c r="E112">
-        <v>17.5228294783226</v>
+        <v>17.52272901906545</v>
       </c>
       <c r="F112">
-        <v>17.01301902344469</v>
+        <v>16.46365144685709</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>17.38815607484804</v>
+        <v>17.40076503660684</v>
       </c>
       <c r="C113">
-        <v>17.54747304110113</v>
+        <v>17.6216660736862</v>
       </c>
       <c r="D113">
-        <v>16.58040760430692</v>
+        <v>17.59723800864026</v>
       </c>
       <c r="E113">
-        <v>17.53483883640364</v>
+        <v>17.53581515899268</v>
       </c>
       <c r="F113">
-        <v>17.03802171167961</v>
+        <v>16.48942897069021</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>17.39402301142051</v>
+        <v>17.41694741664061</v>
       </c>
       <c r="C114">
-        <v>17.55560361560426</v>
+        <v>17.62656611832906</v>
       </c>
       <c r="D114">
-        <v>16.60265250408736</v>
+        <v>17.60512136687642</v>
       </c>
       <c r="E114">
-        <v>17.54405473677092</v>
+        <v>17.54602560428093</v>
       </c>
       <c r="F114">
-        <v>17.06064442899294</v>
+        <v>16.51350858681264</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>17.39745790362112</v>
+        <v>17.4305564546333</v>
       </c>
       <c r="C115">
-        <v>17.5610394026241</v>
+        <v>17.62875906634814</v>
       </c>
       <c r="D115">
-        <v>16.623219646036</v>
+        <v>17.61031382003464</v>
       </c>
       <c r="E115">
-        <v>17.55057442992532</v>
+        <v>17.55346138981928</v>
       </c>
       <c r="F115">
-        <v>17.08094232163835</v>
+        <v>16.53591003837976</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>17.39854183350173</v>
+        <v>17.44166944013762</v>
       </c>
       <c r="C116">
-        <v>17.56387591161128</v>
+        <v>17.62834537324433</v>
       </c>
       <c r="D116">
-        <v>16.64212575490766</v>
+        <v>17.61291047536548</v>
       </c>
       <c r="E116">
-        <v>17.55449196667636</v>
+        <v>17.55822026251766</v>
       </c>
       <c r="F116">
-        <v>17.0989699178087</v>
+        <v>16.55665343199113</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>17.39735334260582</v>
+        <v>17.45036161899774</v>
       </c>
       <c r="C117">
-        <v>17.5642054215075</v>
+        <v>17.62542201681979</v>
       </c>
       <c r="D117">
-        <v>16.65938793180961</v>
+        <v>17.61300324308704</v>
       </c>
       <c r="E117">
-        <v>17.55589828667527</v>
+        <v>17.560396751294</v>
       </c>
       <c r="F117">
-        <v>17.1147810508455</v>
+        <v>16.57575918813491</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>17.39396849160239</v>
+        <v>17.45670619583906</v>
       </c>
       <c r="C118">
-        <v>17.56211707072365</v>
+        <v>17.62008258637224</v>
       </c>
       <c r="D118">
-        <v>16.67502361463529</v>
+        <v>17.61068093413951</v>
       </c>
       <c r="E118">
-        <v>17.55488131223517</v>
+        <v>17.56008224795267</v>
       </c>
       <c r="F118">
-        <v>17.12842879509382</v>
+        <v>16.59324800884522</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>17.38846092524277</v>
+        <v>17.46077437820253</v>
       </c>
       <c r="C119">
-        <v>17.55769696131985</v>
+        <v>17.61241736530475</v>
       </c>
       <c r="D119">
-        <v>16.68905055631451</v>
+        <v>17.60602934905026</v>
       </c>
       <c r="E119">
-        <v>17.55152602749394</v>
+        <v>17.55736508916121</v>
       </c>
       <c r="F119">
-        <v>17.13996541377127</v>
+        <v>16.60914083385123</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>17.38090193502786</v>
+        <v>17.46263540256551</v>
       </c>
       <c r="C120">
-        <v>17.55102824956941</v>
+        <v>17.60251344088669</v>
       </c>
       <c r="D120">
-        <v>16.70148679127332</v>
+        <v>17.59913136888813</v>
       </c>
       <c r="E120">
-        <v>17.54591456242197</v>
+        <v>17.55233064059981</v>
       </c>
       <c r="F120">
-        <v>17.14944231783066</v>
+        <v>16.62345880035317</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>17.37136051960366</v>
+        <v>17.4623565710494</v>
       </c>
       <c r="C121">
-        <v>17.54219123996877</v>
+        <v>17.59045479828806</v>
       </c>
       <c r="D121">
-        <v>16.71235060845455</v>
+        <v>17.5900670458579</v>
       </c>
       <c r="E121">
-        <v>17.53812627248293</v>
+        <v>17.54506138429511</v>
       </c>
       <c r="F121">
-        <v>17.15691003400158</v>
+        <v>16.63622321663497</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>17.35990346353826</v>
+        <v>17.46000329083367</v>
       </c>
       <c r="C122">
-        <v>17.5312634771877</v>
+        <v>17.57632242277367</v>
       </c>
       <c r="D122">
-        <v>16.72166052673673</v>
+        <v>17.57891369252278</v>
       </c>
       <c r="E122">
-        <v>17.52823784002985</v>
+        <v>17.53563700023012</v>
       </c>
       <c r="F122">
-        <v>17.16241818033603</v>
+        <v>16.64745552650926</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>17.34659539606937</v>
+        <v>17.45563911197602</v>
       </c>
       <c r="C123">
-        <v>17.51831983437557</v>
+        <v>17.56019439512056</v>
       </c>
       <c r="D123">
-        <v>16.72943527377206</v>
+        <v>17.56574597130006</v>
       </c>
       <c r="E123">
-        <v>17.51632334936007</v>
+        <v>17.52413445128771</v>
       </c>
       <c r="F123">
-        <v>17.16601544793413</v>
+        <v>16.65717727793485</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>17.33149885922515</v>
+        <v>17.44932576916293</v>
       </c>
       <c r="C124">
-        <v>17.50343260664295</v>
+        <v>17.54214598735443</v>
       </c>
       <c r="D124">
-        <v>16.7356937675842</v>
+        <v>17.55063597735783</v>
       </c>
       <c r="E124">
-        <v>17.50245437485816</v>
+        <v>17.51062806865316</v>
       </c>
       <c r="F124">
-        <v>17.16774958755048</v>
+        <v>16.66541010203022</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>17.31467437077044</v>
+        <v>17.44112322562669</v>
       </c>
       <c r="C125">
-        <v>17.48667158525864</v>
+        <v>17.52224975649627</v>
       </c>
       <c r="D125">
-        <v>16.74045509987982</v>
+        <v>17.53365332719794</v>
       </c>
       <c r="E125">
-        <v>17.48670006023854</v>
+        <v>17.49518964496375</v>
       </c>
       <c r="F125">
-        <v>17.16766740109849</v>
+        <v>16.67217568102268</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>17.29618048631757</v>
+        <v>17.43108970999853</v>
       </c>
       <c r="C126">
-        <v>17.46810416381438</v>
+        <v>17.50057564008654</v>
       </c>
       <c r="D126">
-        <v>16.74373852335782</v>
+        <v>17.5148652309224</v>
       </c>
       <c r="E126">
-        <v>17.46912719804139</v>
+        <v>17.47788850527994</v>
       </c>
       <c r="F126">
-        <v>17.16581473972276</v>
+        <v>16.67749573226025</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>17.27607385833585</v>
+        <v>17.41928176327675</v>
       </c>
       <c r="C127">
-        <v>17.44779538412816</v>
+        <v>17.47719104074094</v>
       </c>
       <c r="D127">
-        <v>16.74556344038762</v>
+        <v>17.49433658782459</v>
       </c>
       <c r="E127">
-        <v>17.44980030363609</v>
+        <v>17.45879159808502</v>
       </c>
       <c r="F127">
-        <v>17.16223649841332</v>
+        <v>16.68139198370739</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>17.25440930482716</v>
+        <v>17.40575427434274</v>
       </c>
       <c r="C128">
-        <v>17.42580805760791</v>
+        <v>17.45216092068626</v>
       </c>
       <c r="D128">
-        <v>16.74594939596448</v>
+        <v>17.47213005994042</v>
       </c>
       <c r="E128">
-        <v>17.42878170115326</v>
+        <v>17.43796356141437</v>
       </c>
       <c r="F128">
-        <v>17.15697662353486</v>
+        <v>16.68388615347344</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>17.23123985008629</v>
+        <v>17.39056054072828</v>
       </c>
       <c r="C129">
-        <v>17.40220280299239</v>
+        <v>17.42554787716489</v>
       </c>
       <c r="D129">
-        <v>16.74491607499303</v>
+        <v>17.44830613865948</v>
       </c>
       <c r="E129">
-        <v>17.40613158063442</v>
+        <v>17.4154668142596</v>
       </c>
       <c r="F129">
-        <v>17.15007809889124</v>
+        <v>16.68499993244692</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>17.20661680756075</v>
+        <v>17.37375229143807</v>
       </c>
       <c r="C130">
-        <v>17.37703815517107</v>
+        <v>17.39741223703273</v>
       </c>
       <c r="D130">
-        <v>16.74248330353602</v>
+        <v>17.42292323531256</v>
       </c>
       <c r="E130">
-        <v>17.38190808756968</v>
+        <v>17.39136160408692</v>
       </c>
       <c r="F130">
-        <v>17.14158298420827</v>
+        <v>16.68475496898247</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>17.18058980909054</v>
+        <v>17.3553797438798</v>
       </c>
       <c r="C131">
-        <v>17.35037060279337</v>
+        <v>17.36781213649577</v>
       </c>
       <c r="D131">
-        <v>16.73867105505075</v>
+        <v>17.39603772432391</v>
       </c>
       <c r="E131">
-        <v>17.35616738329247</v>
+        <v>17.36570610685338</v>
       </c>
       <c r="F131">
-        <v>17.13153239299459</v>
+        <v>16.68317285487446</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>17.15320686975411</v>
+        <v>17.33549163827478</v>
       </c>
       <c r="C132">
-        <v>17.32225468948939</v>
+        <v>17.33680358461934</v>
       </c>
       <c r="D132">
-        <v>16.73349946255215</v>
+        <v>17.36770404277549</v>
       </c>
       <c r="E132">
-        <v>17.32896369797086</v>
+        <v>17.3385564848316</v>
       </c>
       <c r="F132">
-        <v>17.11996652652718</v>
+        <v>16.68027511262771</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>17.12451444958964</v>
+        <v>17.31413527817437</v>
       </c>
       <c r="C133">
-        <v>17.29274305163679</v>
+        <v>17.30444056383014</v>
       </c>
       <c r="D133">
-        <v>16.72698883866343</v>
+        <v>17.33797473355633</v>
       </c>
       <c r="E133">
-        <v>17.30034943326883</v>
+        <v>17.30996695640763</v>
       </c>
       <c r="F133">
-        <v>17.1069246734832</v>
+        <v>16.67608318464397</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>17.09455747675684</v>
+        <v>17.2913565718658</v>
       </c>
       <c r="C134">
-        <v>17.26188650987856</v>
+        <v>17.27077507034042</v>
       </c>
       <c r="D134">
-        <v>16.71915970348657</v>
+        <v>17.30690052795424</v>
       </c>
       <c r="E134">
-        <v>17.27037516707919</v>
+        <v>17.2799898649855</v>
       </c>
       <c r="F134">
-        <v>17.09244522241526</v>
+        <v>16.67061842351092</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>17.06337943457561</v>
+        <v>17.26720006211228</v>
       </c>
       <c r="C135">
-        <v>17.22973411369942</v>
+        <v>17.23585721677678</v>
       </c>
       <c r="D135">
-        <v>16.71003282146025</v>
+        <v>17.27453039215874</v>
       </c>
       <c r="E135">
-        <v>17.23908978149362</v>
+        <v>17.24867573440618</v>
       </c>
       <c r="F135">
-        <v>17.07656567161997</v>
+        <v>16.66390208476558</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>17.03102236188778</v>
+        <v>17.24170897845914</v>
       </c>
       <c r="C136">
-        <v>17.19633321390748</v>
+        <v>17.19973527625419</v>
       </c>
       <c r="D136">
-        <v>16.69962924877221</v>
+        <v>17.24091160169687</v>
       </c>
       <c r="E136">
-        <v>17.20654045033375</v>
+        <v>17.21607334641752</v>
       </c>
       <c r="F136">
-        <v>17.05932264564087</v>
+        <v>16.65595532147529</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>16.99752695003715</v>
+        <v>17.21492526831938</v>
       </c>
       <c r="C137">
-        <v>17.16172951359698</v>
+        <v>17.16245576679494</v>
       </c>
       <c r="D137">
-        <v>16.687970394439</v>
+        <v>17.20608978977862</v>
       </c>
       <c r="E137">
-        <v>17.17277276521326</v>
+        <v>17.18222978138113</v>
       </c>
       <c r="F137">
-        <v>17.04075191266824</v>
+        <v>16.64679918078706</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>16.96293253593474</v>
+        <v>17.18688963284304</v>
       </c>
       <c r="C138">
-        <v>17.12596712901793</v>
+        <v>17.12406349992553</v>
       </c>
       <c r="D138">
-        <v>16.67507808426593</v>
+        <v>17.17010900781657</v>
       </c>
       <c r="E138">
-        <v>17.13783072746837</v>
+        <v>17.14719049438546</v>
       </c>
       <c r="F138">
-        <v>17.02088839494678</v>
+        <v>16.63645460253927</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>16.92727719494496</v>
+        <v>17.15764156513496</v>
       </c>
       <c r="C139">
-        <v>17.0890886448665</v>
+        <v>17.0846016532297</v>
       </c>
       <c r="D139">
-        <v>16.6609746282004</v>
+        <v>17.13301178309855</v>
       </c>
       <c r="E139">
-        <v>17.10175685951396</v>
+        <v>17.11099935746723</v>
       </c>
       <c r="F139">
-        <v>16.99976618596491</v>
+        <v>16.6249424208615</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>16.89059773841825</v>
+        <v>17.12721938254758</v>
       </c>
       <c r="C140">
-        <v>17.05113516156024</v>
+        <v>17.04411182473359</v>
       </c>
       <c r="D140">
-        <v>16.64568287251187</v>
+        <v>17.09483916097439</v>
       </c>
       <c r="E140">
-        <v>17.06459220423741</v>
+        <v>17.07369871343494</v>
       </c>
       <c r="F140">
-        <v>16.97741856634796</v>
+        <v>16.61228336830535</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>16.85292979214585</v>
+        <v>17.09566026408158</v>
       </c>
       <c r="C141">
-        <v>17.01214635807809</v>
+        <v>17.00263408714224</v>
       </c>
       <c r="D141">
-        <v>16.62922621649994</v>
+        <v>17.05563077089617</v>
       </c>
       <c r="E141">
-        <v>17.02637641816461</v>
+        <v>17.03532943855897</v>
       </c>
       <c r="F141">
-        <v>16.95387801797756</v>
+        <v>16.59849808320944</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>16.81430780641742</v>
+        <v>17.06300027829069</v>
       </c>
       <c r="C142">
-        <v>16.9721605240195</v>
+        <v>16.96020705454551</v>
       </c>
       <c r="D142">
-        <v>16.61162857126136</v>
+        <v>17.01542484588393</v>
       </c>
       <c r="E142">
-        <v>16.9871477882107</v>
+        <v>16.99593101533193</v>
       </c>
       <c r="F142">
-        <v>16.92917624061052</v>
+        <v>16.58360712098814</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>16.77476510897957</v>
+        <v>17.02927442280883</v>
       </c>
       <c r="C143">
-        <v>16.93121463026355</v>
+        <v>16.91686791822992</v>
       </c>
       <c r="D143">
-        <v>16.5929142499276</v>
+        <v>16.97425832225192</v>
       </c>
       <c r="E143">
-        <v>16.94694329229675</v>
+        <v>16.9555414821286</v>
       </c>
       <c r="F143">
-        <v>16.9033441670091</v>
+        <v>16.56763096897443</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>16.73433394128468</v>
+        <v>16.99451664631736</v>
       </c>
       <c r="C144">
-        <v>16.88934434934993</v>
+        <v>16.87265251871609</v>
       </c>
       <c r="D144">
-        <v>16.57310780328138</v>
+        <v>16.93216684171653</v>
       </c>
       <c r="E144">
-        <v>16.90579864618134</v>
+        <v>16.91419764650813</v>
       </c>
       <c r="F144">
-        <v>16.87641197878564</v>
+        <v>16.55059006502083</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>16.69304548133458</v>
+        <v>16.95875989028983</v>
       </c>
       <c r="C145">
-        <v>16.84658412596588</v>
+        <v>16.82759537419031</v>
       </c>
       <c r="D145">
-        <v>16.55223383320705</v>
+        <v>16.88918478434483</v>
       </c>
       <c r="E145">
-        <v>16.86374833023972</v>
+        <v>16.87193502548951</v>
       </c>
       <c r="F145">
-        <v>16.848409122679</v>
+        <v>16.53250481805053</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>16.65092990028042</v>
+        <v>16.92203609791281</v>
       </c>
       <c r="C146">
-        <v>16.80296719476998</v>
+        <v>16.78172974253979</v>
       </c>
       <c r="D146">
-        <v>16.53031681988843</v>
+        <v>16.8453454107687</v>
       </c>
       <c r="E146">
-        <v>16.82082565813785</v>
+        <v>16.82878780396854</v>
       </c>
       <c r="F146">
-        <v>16.81936432497723</v>
+        <v>16.51339562779427</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>16.60801636706414</v>
+        <v>16.88437627533238</v>
       </c>
       <c r="C147">
-        <v>16.75852564576421</v>
+        <v>16.73508765131727</v>
       </c>
       <c r="D147">
-        <v>16.50738098501093</v>
+        <v>16.80068075273201</v>
       </c>
       <c r="E147">
-        <v>16.77706278366709</v>
+        <v>16.78478911005068</v>
       </c>
       <c r="F147">
-        <v>16.78930560681204</v>
+        <v>16.49328289776546</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>16.56433311311253</v>
+        <v>16.84581050640255</v>
       </c>
       <c r="C148">
-        <v>16.71329044215621</v>
+        <v>16.6876999847797</v>
       </c>
       <c r="D148">
-        <v>16.48345019564446</v>
+        <v>16.75522174811888</v>
       </c>
       <c r="E148">
-        <v>16.73249077755056</v>
+        <v>16.73997086253748</v>
       </c>
       <c r="F148">
-        <v>16.75826029924009</v>
+        <v>16.47218703365814</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>16.51990742890985</v>
+        <v>16.80636793346141</v>
       </c>
       <c r="C149">
-        <v>16.6672914793501</v>
+        <v>16.63959645585236</v>
       </c>
       <c r="D149">
-        <v>16.45854790327491</v>
+        <v>16.7089983233769</v>
       </c>
       <c r="E149">
-        <v>16.68713962501718</v>
+        <v>16.69436382195289</v>
       </c>
       <c r="F149">
-        <v>16.7262550600619</v>
+        <v>16.45012841953256</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>16.47476573007263</v>
+        <v>16.76607688551444</v>
       </c>
       <c r="C150">
-        <v>16.62055760429563</v>
+        <v>16.59080571658436</v>
       </c>
       <c r="D150">
-        <v>16.43269710841926</v>
+        <v>16.66203924950376</v>
       </c>
       <c r="E150">
-        <v>16.64103830426103</v>
+        <v>16.6479977679096</v>
       </c>
       <c r="F150">
-        <v>16.69331588958714</v>
+        <v>16.42712737029959</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>16.42893354962987</v>
+        <v>16.72496483856061</v>
       </c>
       <c r="C151">
-        <v>16.57311666225088</v>
+        <v>16.54135540986886</v>
       </c>
       <c r="D151">
-        <v>16.40592034420539</v>
+        <v>16.61437239168481</v>
       </c>
       <c r="E151">
-        <v>16.59421477815</v>
+        <v>16.60090137816248</v>
       </c>
       <c r="F151">
-        <v>16.65946814440247</v>
+        <v>16.4032040669405</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>16.38243560178085</v>
+        <v>16.68305837583178</v>
       </c>
       <c r="C152">
-        <v>16.52499551994852</v>
+        <v>16.49127204909393</v>
       </c>
       <c r="D152">
-        <v>16.37823966896987</v>
+        <v>16.56602463115268</v>
       </c>
       <c r="E152">
-        <v>16.54669607135451</v>
+        <v>16.55310234268049</v>
       </c>
       <c r="F152">
-        <v>16.62473655206393</v>
+        <v>16.37837848773473</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>16.33529578029598</v>
+        <v>16.64038337280876</v>
       </c>
       <c r="C153">
-        <v>16.47622013425652</v>
+        <v>16.44058129769532</v>
       </c>
       <c r="D153">
-        <v>16.34967666741278</v>
+        <v>16.51702185838387</v>
       </c>
       <c r="E153">
-        <v>16.49850826441128</v>
+        <v>16.50462742180991</v>
       </c>
       <c r="F153">
-        <v>16.58914522307197</v>
+        <v>16.35267034791944</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>16.28753720197747</v>
+        <v>16.59696491085692</v>
       </c>
       <c r="C154">
-        <v>16.4268155314439</v>
+        <v>16.38930784453595</v>
       </c>
       <c r="D154">
-        <v>16.3202524547392</v>
+        <v>16.46738912850135</v>
       </c>
       <c r="E154">
-        <v>16.44967655499807</v>
+        <v>16.45550238619341</v>
       </c>
       <c r="F154">
-        <v>16.55271767334928</v>
+        <v>16.32609905439394</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>16.23918222691822</v>
+        <v>16.5528272557602</v>
       </c>
       <c r="C155">
-        <v>16.37680587188375</v>
+        <v>16.33747540591114</v>
       </c>
       <c r="D155">
-        <v>16.28998768374907</v>
+        <v>16.4171505999314</v>
       </c>
       <c r="E155">
-        <v>16.40022527036752</v>
+        <v>16.40575215965334</v>
       </c>
       <c r="F155">
-        <v>16.51547682568131</v>
+        <v>16.29868367601729</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>16.19025247881261</v>
+        <v>16.50799402263338</v>
       </c>
       <c r="C156">
-        <v>16.32621452502536</v>
+        <v>16.28510691659966</v>
       </c>
       <c r="D156">
-        <v>16.25890255283158</v>
+        <v>16.36632957045492</v>
       </c>
       <c r="E156">
-        <v>16.35017790321494</v>
+        <v>16.35540079337905</v>
       </c>
       <c r="F156">
-        <v>16.47744503409635</v>
+        <v>16.27044292658057</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>16.14076888059447</v>
+        <v>16.46248809824812</v>
       </c>
       <c r="C157">
-        <v>16.27506397028765</v>
+        <v>16.23222442347849</v>
       </c>
       <c r="D157">
-        <v>16.22701681483086</v>
+        <v>16.31494857047192</v>
       </c>
       <c r="E157">
-        <v>16.29955714413359</v>
+        <v>16.30447145835812</v>
       </c>
       <c r="F157">
-        <v>16.43864409463348</v>
+        <v>16.2413951569895</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>16.0907516605203</v>
+        <v>16.41633164156239</v>
       </c>
       <c r="C158">
-        <v>16.22337594154484</v>
+        <v>16.17884915366067</v>
       </c>
       <c r="D158">
-        <v>16.19434978614189</v>
+        <v>16.26302931701034</v>
       </c>
       <c r="E158">
-        <v>16.24838489753429</v>
+        <v>16.25298657605554</v>
       </c>
       <c r="F158">
-        <v>16.39909524744906</v>
+        <v>16.21155835357632</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>16.04022039531788</v>
+        <v>16.36954619775008</v>
       </c>
       <c r="C159">
-        <v>16.17117145778338</v>
+        <v>16.12500159519373</v>
       </c>
       <c r="D159">
-        <v>16.16092035587499</v>
+        <v>16.2105927811189</v>
       </c>
       <c r="E159">
-        <v>16.19668232582751</v>
+        <v>16.20096776467971</v>
       </c>
       <c r="F159">
-        <v>16.35881920930724</v>
+        <v>16.18095013983586</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>15.98919400853888</v>
+        <v>16.32215265141876</v>
       </c>
       <c r="C160">
-        <v>16.11847071443995</v>
+        <v>16.07070143756607</v>
       </c>
       <c r="D160">
-        <v>16.12674699506848</v>
+        <v>16.1576592329865</v>
       </c>
       <c r="E160">
-        <v>16.14446985334354</v>
+        <v>16.14843586341797</v>
       </c>
       <c r="F160">
-        <v>16.31783617200737</v>
+        <v>16.14958778060883</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>15.93769081641124</v>
+        <v>16.27417123158866</v>
       </c>
       <c r="C161">
-        <v>16.06529326780488</v>
+        <v>16.01596767699961</v>
       </c>
       <c r="D161">
-        <v>16.09184776574272</v>
+        <v>16.10424818135918</v>
       </c>
       <c r="E161">
-        <v>16.09176721617027</v>
+        <v>16.09541103633423</v>
       </c>
       <c r="F161">
-        <v>16.27616582010365</v>
+        <v>16.11748818746732</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>15.8857285222521</v>
+        <v>16.22562159903741</v>
       </c>
       <c r="C162">
-        <v>16.01165799862654</v>
+        <v>15.96081861927473</v>
       </c>
       <c r="D162">
-        <v>16.05624032980946</v>
+        <v>16.05037850904816</v>
       </c>
       <c r="E162">
-        <v>16.03859345894374</v>
+        <v>16.04191270705277</v>
       </c>
       <c r="F162">
-        <v>16.23382734599651</v>
+        <v>16.08466792480477</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>15.83332426125755</v>
+        <v>16.17652281434862</v>
       </c>
       <c r="C163">
-        <v>15.95758306581507</v>
+        <v>15.90527186286707</v>
       </c>
       <c r="D163">
-        <v>16.01994195785552</v>
+        <v>15.99606843609705</v>
       </c>
       <c r="E163">
-        <v>15.98496698660946</v>
+        <v>15.98795962572471</v>
       </c>
       <c r="F163">
-        <v>16.19083945001787</v>
+        <v>16.05114321628927</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>15.78049459796457</v>
+        <v>16.12689334391393</v>
       </c>
       <c r="C164">
-        <v>15.90308605598068</v>
+        <v>15.84934440583238</v>
       </c>
       <c r="D164">
-        <v>15.98296953774616</v>
+        <v>15.94133550058512</v>
       </c>
       <c r="E164">
-        <v>15.93090555760584</v>
+        <v>15.93356991814574</v>
       </c>
       <c r="F164">
-        <v>16.14722036996051</v>
+        <v>16.01692995144763</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>15.72725555936193</v>
+        <v>16.0767511350658</v>
       </c>
       <c r="C165">
-        <v>15.84818393004049</v>
+        <v>15.7930526057238</v>
       </c>
       <c r="D165">
-        <v>15.94533958303593</v>
+        <v>15.88619668375305</v>
       </c>
       <c r="E165">
-        <v>15.87642633371772</v>
+        <v>15.87876103044932</v>
       </c>
       <c r="F165">
-        <v>16.10298787889629</v>
+        <v>15.9820436922935</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>15.67362264532832</v>
+        <v>16.026113586155</v>
       </c>
       <c r="C166">
-        <v>15.79289302072682</v>
+        <v>15.73641219477131</v>
       </c>
       <c r="D166">
-        <v>15.907068241214</v>
+        <v>15.83066835466416</v>
       </c>
       <c r="E166">
-        <v>15.82154587673426</v>
+        <v>15.82354983606039</v>
       </c>
       <c r="F166">
-        <v>16.05815929766121</v>
+        <v>15.9464996799166</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>15.61961084610369</v>
+        <v>15.97499754492901</v>
       </c>
       <c r="C167">
-        <v>15.73722913630544</v>
+        <v>15.67943837403174</v>
       </c>
       <c r="D167">
-        <v>15.86817130177749</v>
+        <v>15.77476629605833</v>
       </c>
       <c r="E167">
-        <v>15.76628018598037</v>
+        <v>15.76795261956935</v>
       </c>
       <c r="F167">
-        <v>16.01275151664381</v>
+        <v>15.91031284098508</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>15.56523466431719</v>
+        <v>15.92341939515735</v>
       </c>
       <c r="C168">
-        <v>15.68120752337453</v>
+        <v>15.62214574763517</v>
       </c>
       <c r="D168">
-        <v>15.82866420412937</v>
+        <v>15.71850577037003</v>
       </c>
       <c r="E168">
-        <v>15.71064470812319</v>
+        <v>15.71198507105444</v>
       </c>
       <c r="F168">
-        <v>15.96678098882938</v>
+        <v>15.87349779413436</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>15.51050812126214</v>
+        <v>15.87139501343665</v>
       </c>
       <c r="C169">
-        <v>15.62484287175451</v>
+        <v>15.56454838682943</v>
       </c>
       <c r="D169">
-        <v>15.78856204555913</v>
+        <v>15.6619014903765</v>
       </c>
       <c r="E169">
-        <v>15.65465435846575</v>
+        <v>15.6556623678734</v>
       </c>
       <c r="F169">
-        <v>15.92026375813946</v>
+        <v>15.83606885658372</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>15.45544478341805</v>
+        <v>15.81893977158135</v>
       </c>
       <c r="C170">
-        <v>15.56814939965231</v>
+        <v>15.50665986954482</v>
       </c>
       <c r="D170">
-        <v>15.74787958978301</v>
+        <v>15.60496766183699</v>
       </c>
       <c r="E170">
-        <v>15.59832354272001</v>
+        <v>15.59899914538486</v>
       </c>
       <c r="F170">
-        <v>15.87321546002649</v>
+        <v>15.79804005012008</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>15.40005775801648</v>
+        <v>15.76606861798249</v>
       </c>
       <c r="C171">
-        <v>15.51114081453133</v>
+        <v>15.44849323492555</v>
       </c>
       <c r="D171">
-        <v>15.70663127339742</v>
+        <v>15.54771801317816</v>
       </c>
       <c r="E171">
-        <v>15.54166616621329</v>
+        <v>15.54200950714411</v>
       </c>
       <c r="F171">
-        <v>15.82565132828892</v>
+        <v>15.75942510639411</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>15.34435974155135</v>
+        <v>15.71279603700915</v>
       </c>
       <c r="C172">
-        <v>15.45383032012933</v>
+        <v>15.39006107425987</v>
       </c>
       <c r="D172">
-        <v>15.66483120817055</v>
+        <v>15.49016575716367</v>
       </c>
       <c r="E172">
-        <v>15.4846956628275</v>
+        <v>15.48470710084901</v>
       </c>
       <c r="F172">
-        <v>15.77758621768497</v>
+        <v>15.7202374731896</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>15.28836301932004</v>
+        <v>15.65913606015942</v>
       </c>
       <c r="C173">
-        <v>15.39623070409205</v>
+        <v>15.33137550977156</v>
       </c>
       <c r="D173">
-        <v>15.62249320088087</v>
+        <v>15.43232368070856</v>
       </c>
       <c r="E173">
-        <v>15.42742499665346</v>
+        <v>15.42710507455818</v>
       </c>
       <c r="F173">
-        <v>15.72903459880501</v>
+        <v>15.68049032088255</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>15.23207942420333</v>
+        <v>15.60510232331322</v>
       </c>
       <c r="C174">
-        <v>15.33835428240753</v>
+        <v>15.27244820331682</v>
       </c>
       <c r="D174">
-        <v>15.57963073843361</v>
+        <v>15.37420412237813</v>
       </c>
       <c r="E174">
-        <v>15.36986669443762</v>
+        <v>15.36921611663274</v>
       </c>
       <c r="F174">
-        <v>15.68001057746119</v>
+        <v>15.64019654807874</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>15.17552046247284</v>
+        <v>15.55070804266365</v>
       </c>
       <c r="C175">
-        <v>15.28021292442925</v>
+        <v>15.21329041269232</v>
       </c>
       <c r="D175">
-        <v>15.53625701816596</v>
+        <v>15.31581896265252</v>
       </c>
       <c r="E175">
-        <v>15.31203284296071</v>
+        <v>15.31105249349847</v>
       </c>
       <c r="F175">
-        <v>15.63052790278419</v>
+        <v>15.59936878683048</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>15.11869725923004</v>
+        <v>15.49596602704752</v>
       </c>
       <c r="C176">
-        <v>15.22181811941753</v>
+        <v>15.15391296748316</v>
       </c>
       <c r="D176">
-        <v>15.49238494482658</v>
+        <v>15.25717970153912</v>
       </c>
       <c r="E176">
-        <v>15.25393512213994</v>
+        <v>15.25262601358061</v>
       </c>
       <c r="F176">
-        <v>15.58059996693452</v>
+        <v>15.55801940815138</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>15.06162052782169</v>
+        <v>15.44088872078086</v>
       </c>
       <c r="C177">
-        <v>15.16318093176734</v>
+        <v>15.09432628911958</v>
       </c>
       <c r="D177">
-        <v>15.44802713066672</v>
+        <v>15.19829742491811</v>
       </c>
       <c r="E177">
-        <v>15.19558479158755</v>
+        <v>15.19394809318746</v>
       </c>
       <c r="F177">
-        <v>15.53023982907386</v>
+        <v>15.51616052759282</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>15.00430064796216</v>
+        <v>15.38548818398211</v>
       </c>
       <c r="C178">
-        <v>15.10431203774945</v>
+        <v>15.03454044264993</v>
       </c>
       <c r="D178">
-        <v>15.40319591799155</v>
+        <v>15.13918281894929</v>
       </c>
       <c r="E178">
-        <v>15.13699274210125</v>
+        <v>15.13502975283062</v>
       </c>
       <c r="F178">
-        <v>15.47946021079856</v>
+        <v>15.47380401012927</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>14.94674769513131</v>
+        <v>15.32977609984033</v>
       </c>
       <c r="C179">
-        <v>15.04522175798403</v>
+        <v>14.97456509573839</v>
       </c>
       <c r="D179">
-        <v>15.35790336722171</v>
+        <v>15.07984622058946</v>
       </c>
       <c r="E179">
-        <v>15.07816949389506</v>
+        <v>15.07588160354923</v>
       </c>
       <c r="F179">
-        <v>15.4282735091198</v>
+        <v>15.43096147588658</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>14.8889713853836</v>
+        <v>15.27376382623675</v>
       </c>
       <c r="C180">
-        <v>14.98592003639704</v>
+        <v>14.91440957280368</v>
       </c>
       <c r="D180">
-        <v>15.31216127209441</v>
+        <v>15.02029758925502</v>
       </c>
       <c r="E180">
-        <v>15.01912517752176</v>
+        <v>15.01651391258886</v>
       </c>
       <c r="F180">
-        <v>15.37669180944724</v>
+        <v>15.38764430770941</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>14.83098108104797</v>
+        <v>15.21746236667332</v>
       </c>
       <c r="C181">
-        <v>14.92641647757988</v>
+        <v>14.8540828633222</v>
       </c>
       <c r="D181">
-        <v>15.26598117117188</v>
+        <v>14.9605465390133</v>
       </c>
       <c r="E181">
-        <v>14.95986959330458</v>
+        <v>14.9569365797999</v>
       </c>
       <c r="F181">
-        <v>15.32472688115454</v>
+        <v>15.3438636434325</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>14.772785895479</v>
+        <v>15.16088238213207</v>
       </c>
       <c r="C182">
-        <v>14.86672036184298</v>
+        <v>14.79359359866011</v>
       </c>
       <c r="D182">
-        <v>15.21937433694588</v>
+        <v>14.90060236108936</v>
       </c>
       <c r="E182">
-        <v>14.90041222804118</v>
+        <v>14.89715914520262</v>
       </c>
       <c r="F182">
-        <v>15.27239020051559</v>
+        <v>15.29963039768321</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>14.71439462564058</v>
+        <v>15.1040342347779</v>
       </c>
       <c r="C183">
-        <v>14.80684061665219</v>
+        <v>14.73295011829235</v>
       </c>
       <c r="D183">
-        <v>15.17235179800432</v>
+        <v>14.8404740006346</v>
       </c>
       <c r="E183">
-        <v>14.84076221510729</v>
+        <v>14.83719083770486</v>
       </c>
       <c r="F183">
-        <v>15.21969294476016</v>
+        <v>15.2549552617317</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>14.65581573918238</v>
+        <v>15.04692796298376</v>
       </c>
       <c r="C184">
-        <v>14.74678588015074</v>
+        <v>14.6721604460511</v>
       </c>
       <c r="D184">
-        <v>15.12492433863234</v>
+        <v>14.78017010897012</v>
       </c>
       <c r="E184">
-        <v>14.78092834270527</v>
+        <v>14.77704054975347</v>
       </c>
       <c r="F184">
-        <v>15.16664600181027</v>
+        <v>15.20984870256551</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>14.59705747181393</v>
+        <v>14.98957329429382</v>
       </c>
       <c r="C185">
-        <v>14.68656449337576</v>
+        <v>14.61123229803783</v>
       </c>
       <c r="D185">
-        <v>15.07710249686972</v>
+        <v>14.71969903439879</v>
       </c>
       <c r="E185">
-        <v>14.72091916289707</v>
+        <v>14.71671686034671</v>
       </c>
       <c r="F185">
-        <v>15.11325999272919</v>
+        <v>15.16432097015111</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>14.53812777851273</v>
+        <v>14.93197968129165</v>
       </c>
       <c r="C186">
-        <v>14.62618447543446</v>
+        <v>14.55017312442249</v>
       </c>
       <c r="D186">
-        <v>15.02889658629884</v>
+        <v>14.65906881641335</v>
       </c>
       <c r="E186">
-        <v>14.66074291314086</v>
+        <v>14.65622806370927</v>
       </c>
       <c r="F186">
-        <v>15.05954526864549</v>
+        <v>15.11838210317314</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>14.47903432943544</v>
+        <v>14.8741562814665</v>
       </c>
       <c r="C187">
-        <v>14.56565359514453</v>
+        <v>14.48899008848477</v>
       </c>
       <c r="D187">
-        <v>14.9803166786362</v>
+        <v>14.59828723477575</v>
       </c>
       <c r="E187">
-        <v>14.60040748728559</v>
+        <v>14.59558214465903</v>
       </c>
       <c r="F187">
-        <v>15.00551189664138</v>
+        <v>15.07204193308356</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>14.41978455976473</v>
+        <v>14.81611197073138</v>
       </c>
       <c r="C188">
-        <v>14.50497934371378</v>
+        <v>14.42769008862848</v>
       </c>
       <c r="D188">
-        <v>14.93137263493135</v>
+        <v>14.53736178929252</v>
       </c>
       <c r="E188">
-        <v>14.5399205788978</v>
+        <v>14.53478682007288</v>
       </c>
       <c r="F188">
-        <v>14.95116969266431</v>
+        <v>15.02531008780773</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>14.36038566697112</v>
+        <v>14.75785537214767</v>
       </c>
       <c r="C189">
-        <v>14.44416892869947</v>
+        <v>14.36627978091423</v>
       </c>
       <c r="D189">
-        <v>14.88207409481421</v>
+        <v>14.47629970867673</v>
       </c>
       <c r="E189">
-        <v>14.47928959957466</v>
+        <v>14.47384954094514</v>
       </c>
       <c r="F189">
-        <v>14.89652824341676</v>
+        <v>14.97819599582453</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>14.30084459995909</v>
+        <v>14.69939483942754</v>
       </c>
       <c r="C190">
-        <v>14.3832293296915</v>
+        <v>14.30476555734367</v>
       </c>
       <c r="D190">
-        <v>14.83243048292349</v>
+        <v>14.41510798551062</v>
       </c>
       <c r="E190">
-        <v>14.41852166964354</v>
+        <v>14.41277747855241</v>
       </c>
       <c r="F190">
-        <v>14.84159688907714</v>
+        <v>14.9307088897791</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>14.24116807375427</v>
+        <v>14.64073847044036</v>
       </c>
       <c r="C191">
-        <v>14.32216727511803</v>
+        <v>14.24315358823753</v>
       </c>
       <c r="D191">
-        <v>14.78245101275993</v>
+        <v>14.35379335554263</v>
       </c>
       <c r="E191">
-        <v>14.35762369413606</v>
+        <v>14.35157757240418</v>
       </c>
       <c r="F191">
-        <v>14.78638468495994</v>
+        <v>14.88285781183571</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>14.18136260408123</v>
+        <v>14.58189413210723</v>
       </c>
       <c r="C192">
-        <v>14.26098924378187</v>
+        <v>14.1814498160537</v>
       </c>
       <c r="D192">
-        <v>14.73214469488205</v>
+        <v>14.29236232007684</v>
       </c>
       <c r="E192">
-        <v>14.29660234098304</v>
+        <v>14.29025651315773</v>
       </c>
       <c r="F192">
-        <v>14.73090048781874</v>
+        <v>14.83465161689548</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>14.12143448506494</v>
+        <v>14.52286944461669</v>
       </c>
       <c r="C193">
-        <v>14.19970150586158</v>
+        <v>14.11965994880384</v>
       </c>
       <c r="D193">
-        <v>14.6815203364765</v>
+        <v>14.23082116241183</v>
       </c>
       <c r="E193">
-        <v>14.23546403221288</v>
+        <v>14.22882074640862</v>
       </c>
       <c r="F193">
-        <v>14.67515294187764</v>
+        <v>14.78609897647697</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>14.06138977579134</v>
+        <v>14.4636717955364</v>
       </c>
       <c r="C194">
-        <v>14.13831010484136</v>
+        <v>14.05778950092835</v>
       </c>
       <c r="D194">
-        <v>14.63058655042255</v>
+        <v>14.1691759301584</v>
       </c>
       <c r="E194">
-        <v>14.17421496633697</v>
+        <v>14.16727650733011</v>
       </c>
       <c r="F194">
-        <v>14.61915046607995</v>
+        <v>14.73720838279315</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>14.00123437373859</v>
+        <v>14.40430836164383</v>
       </c>
       <c r="C195">
-        <v>14.07682086273625</v>
+        <v>13.99584377571243</v>
       </c>
       <c r="D195">
-        <v>14.5793517606575</v>
+        <v>14.10743247166387</v>
       </c>
       <c r="E195">
-        <v>14.11286114615191</v>
+        <v>14.10562980372889</v>
       </c>
       <c r="F195">
-        <v>14.56290121176344</v>
+        <v>14.68798815215269</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>13.94097397542259</v>
+        <v>14.34478609358682</v>
       </c>
       <c r="C196">
-        <v>14.01523941315539</v>
+        <v>13.93382787394448</v>
       </c>
       <c r="D196">
-        <v>14.52782420269033</v>
+        <v>14.04559642980845</v>
       </c>
       <c r="E196">
-        <v>14.05140835889937</v>
+        <v>14.04388642966864</v>
       </c>
       <c r="F196">
-        <v>14.50641317282046</v>
+        <v>14.63844642826821</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>13.88061405539785</v>
+        <v>14.28511173065139</v>
       </c>
       <c r="C197">
-        <v>13.95357118367607</v>
+        <v>13.87174672012692</v>
       </c>
       <c r="D197">
-        <v>14.47601192809262</v>
+        <v>13.98367323807554</v>
       </c>
       <c r="E197">
-        <v>13.98986217625666</v>
+        <v>13.98205198662835</v>
       </c>
       <c r="F197">
-        <v>14.44969413182642</v>
+        <v>14.58859118600823</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>13.82015993973578</v>
+        <v>14.22529181922297</v>
       </c>
       <c r="C198">
-        <v>13.89182140588909</v>
+        <v>13.80960504581991</v>
       </c>
       <c r="D198">
-        <v>14.42392281126132</v>
+        <v>13.92166815324284</v>
       </c>
       <c r="E198">
-        <v>13.92822800409136</v>
+        <v>13.92013186745734</v>
       </c>
       <c r="F198">
-        <v>14.39275167034765</v>
+        <v>14.53843023524679</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>13.75961677474554</v>
+        <v>14.16533269884263</v>
       </c>
       <c r="C199">
-        <v>13.82999514095468</v>
+        <v>13.74740741036678</v>
       </c>
       <c r="D199">
-        <v>14.37156455291396</v>
+        <v>13.85958624248039</v>
       </c>
       <c r="E199">
-        <v>13.8665110586989</v>
+        <v>13.85813128157138</v>
       </c>
       <c r="F199">
-        <v>14.33559313840932</v>
+        <v>14.48797122412136</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>13.6989895248114</v>
+        <v>14.10524051719323</v>
       </c>
       <c r="C200">
-        <v>13.76809726214433</v>
+        <v>13.68515821003427</v>
       </c>
       <c r="D200">
-        <v>14.31894467946791</v>
+        <v>13.79743238928108</v>
       </c>
       <c r="E200">
-        <v>13.80471634077896</v>
+        <v>13.79605525956139</v>
       </c>
       <c r="F200">
-        <v>14.27822574085364</v>
+        <v>14.43722164225664</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>13.6382829907043</v>
+        <v>14.04502124501037</v>
       </c>
       <c r="C201">
-        <v>13.70613247050894</v>
+        <v>13.62286166501372</v>
       </c>
       <c r="D201">
-        <v>14.26607055237745</v>
+        <v>13.7352113165408</v>
       </c>
       <c r="E201">
-        <v>13.74284871854695</v>
+        <v>13.73390864184501</v>
       </c>
       <c r="F201">
-        <v>14.22065648530692</v>
+        <v>14.38618882398039</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>13.57750182543857</v>
+        <v>13.98468066409845</v>
       </c>
       <c r="C202">
-        <v>13.64410531162319</v>
+        <v>13.56052185137458</v>
       </c>
       <c r="D202">
-        <v>14.2129493703646</v>
+        <v>13.67292757331852</v>
       </c>
       <c r="E202">
-        <v>13.68091288423983</v>
+        <v>13.67169611189328</v>
       </c>
       <c r="F202">
-        <v>14.1628921983036</v>
+        <v>14.33487995163958</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>13.51665052274988</v>
+        <v>13.92422438217962</v>
       </c>
       <c r="C203">
-        <v>13.5820201600442</v>
+        <v>13.49814269071913</v>
       </c>
       <c r="D203">
-        <v>14.15958817006241</v>
+        <v>13.61058554951402</v>
       </c>
       <c r="E203">
-        <v>13.61891334570272</v>
+        <v>13.60942218489784</v>
       </c>
       <c r="F203">
-        <v>14.10493950834348</v>
+        <v>14.28330206044205</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>13.4557334206082</v>
+        <v>13.8636578446938</v>
       </c>
       <c r="C204">
-        <v>13.51988124002661</v>
+        <v>13.43572795165234</v>
       </c>
       <c r="D204">
-        <v>14.10599383303411</v>
+        <v>13.54818948729508</v>
       </c>
       <c r="E204">
-        <v>13.55685446399767</v>
+        <v>13.54709120922374</v>
       </c>
       <c r="F204">
-        <v>14.04680490380411</v>
+        <v>14.23146203655594</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>13.39475472759367</v>
+        <v>13.80298632442305</v>
       </c>
       <c r="C205">
-        <v>13.45769263288823</v>
+        <v>13.37328127322345</v>
       </c>
       <c r="D205">
-        <v>14.0521730888289</v>
+        <v>13.48574346889288</v>
       </c>
       <c r="E205">
-        <v>13.49474045951642</v>
+        <v>13.4847073910634</v>
       </c>
       <c r="F205">
-        <v>13.98849469842708</v>
+        <v>14.17936662752915</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>13.33371851196033</v>
+        <v>13.74221493624022</v>
       </c>
       <c r="C206">
-        <v>13.39545826468621</v>
+        <v>13.31080615345735</v>
       </c>
       <c r="D206">
-        <v>13.9981325169802</v>
+        <v>13.42325144136186</v>
       </c>
       <c r="E206">
-        <v>13.43257539577141</v>
+        <v>13.42227478283752</v>
       </c>
       <c r="F206">
-        <v>13.93001504024108</v>
+        <v>14.12702243409074</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>13.27262868372267</v>
+        <v>13.68134864635201</v>
       </c>
       <c r="C207">
-        <v>13.33318193092404</v>
+        <v>13.24830595835105</v>
       </c>
       <c r="D207">
-        <v>13.94387854909256</v>
+        <v>13.36071721259379</v>
       </c>
       <c r="E207">
-        <v>13.37036318728419</v>
+        <v>13.35979729122062</v>
       </c>
       <c r="F207">
-        <v>13.87137190484862</v>
+        <v>14.07443592600692</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>13.2114890507128</v>
+        <v>13.62039226298033</v>
       </c>
       <c r="C208">
-        <v>13.27086729538386</v>
+        <v>13.18578393576588</v>
       </c>
       <c r="D208">
-        <v>13.88941747637615</v>
+        <v>13.29814444811951</v>
       </c>
       <c r="E208">
-        <v>13.30810762773488</v>
+        <v>13.29727869286321</v>
       </c>
       <c r="F208">
-        <v>13.81257113848394</v>
+        <v>14.02161343592592</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>13.15030328938355</v>
+        <v>13.5593504511643</v>
       </c>
       <c r="C209">
-        <v>13.20851788072884</v>
+        <v>13.12324320416802</v>
       </c>
       <c r="D209">
-        <v>13.83475544043937</v>
+        <v>13.23553669383397</v>
       </c>
       <c r="E209">
-        <v>13.24581237462643</v>
+        <v>13.23472262347002</v>
       </c>
       <c r="F209">
-        <v>13.75361843161801</v>
+        <v>13.9685611638977</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>13.08907494152201</v>
+        <v>13.4982277397906</v>
       </c>
       <c r="C210">
-        <v>13.14613709700039</v>
+        <v>13.06068677082096</v>
       </c>
       <c r="D210">
-        <v>13.77989845232653</v>
+        <v>13.1728973669987</v>
       </c>
       <c r="E210">
-        <v>13.18348094851436</v>
+        <v>13.17213259332511</v>
       </c>
       <c r="F210">
-        <v>13.69451931952943</v>
+        <v>13.91528518716627</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>13.02780743844424</v>
+        <v>13.43702851313276</v>
       </c>
       <c r="C211">
-        <v>13.08372823174386</v>
+        <v>12.99811753245975</v>
       </c>
       <c r="D211">
-        <v>13.72485240289621</v>
+        <v>13.11022976016556</v>
       </c>
       <c r="E211">
-        <v>13.12111676199067</v>
+        <v>13.10951199237144</v>
       </c>
       <c r="F211">
-        <v>13.6352791841615</v>
+        <v>13.86179144787186</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>12.96650410399621</v>
+        <v>13.37575702567329</v>
       </c>
       <c r="C212">
-        <v>13.02129444729697</v>
+        <v>12.93553826988865</v>
       </c>
       <c r="D212">
-        <v>13.669623048142</v>
+        <v>13.04753705697597</v>
       </c>
       <c r="E212">
-        <v>13.05872310831622</v>
+        <v>13.04686408134677</v>
       </c>
       <c r="F212">
-        <v>13.57590329392554</v>
+        <v>13.808085771629</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>12.90516814430209</v>
+        <v>13.31441740712557</v>
       </c>
       <c r="C213">
-        <v>12.95883880464584</v>
+        <v>12.87295166837754</v>
       </c>
       <c r="D213">
-        <v>13.61421601229432</v>
+        <v>12.98482232326994</v>
       </c>
       <c r="E213">
-        <v>12.9963031473088</v>
+        <v>12.98419201458009</v>
       </c>
       <c r="F213">
-        <v>13.51639677481284</v>
+        <v>13.75417385632901</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>12.84380265248748</v>
+        <v>13.25301365490963</v>
       </c>
       <c r="C214">
-        <v>12.89636425372266</v>
+        <v>12.81036030991568</v>
       </c>
       <c r="D214">
-        <v>13.5586367950304</v>
+        <v>12.92208851679499</v>
       </c>
       <c r="E214">
-        <v>12.93385994561097</v>
+        <v>12.92149883262939</v>
       </c>
       <c r="F214">
-        <v>13.45676460683727</v>
+        <v>13.70006127926104</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>12.78241063187761</v>
+        <v>13.19154964880671</v>
       </c>
       <c r="C215">
-        <v>12.83387363296915</v>
+        <v>12.74776667613942</v>
       </c>
       <c r="D215">
-        <v>13.50289072514562</v>
+        <v>12.85933849511708</v>
       </c>
       <c r="E215">
-        <v>12.87139646432365</v>
+        <v>12.85878746263341</v>
       </c>
       <c r="F215">
-        <v>13.3970116393795</v>
+        <v>13.64575351561516</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>12.72099498176046</v>
+        <v>13.13002915419275</v>
       </c>
       <c r="C216">
-        <v>12.771369689344</v>
+        <v>12.68517316219677</v>
       </c>
       <c r="D216">
-        <v>13.44698310413137</v>
+        <v>12.79657500747821</v>
       </c>
       <c r="E216">
-        <v>12.80891555186207</v>
+        <v>12.79606073552485</v>
       </c>
       <c r="F216">
-        <v>13.33714261435777</v>
+        <v>13.59125592522304</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>12.65955849392759</v>
+        <v>13.06845581549113</v>
       </c>
       <c r="C217">
-        <v>12.70885506900387</v>
+        <v>12.6225820688742</v>
       </c>
       <c r="D217">
-        <v>13.39091902563893</v>
+        <v>12.73380071122911</v>
       </c>
       <c r="E217">
-        <v>12.74641995583464</v>
+        <v>12.73332137830594</v>
       </c>
       <c r="F217">
-        <v>13.27716214529421</v>
+        <v>13.53657375579192</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>12.59810388079791</v>
+        <v>13.0068331705219</v>
       </c>
       <c r="C218">
-        <v>12.64633231930759</v>
+        <v>12.55999561109102</v>
       </c>
       <c r="D218">
-        <v>13.33470360760637</v>
+        <v>12.67101816949436</v>
       </c>
       <c r="E218">
-        <v>12.68391233891465</v>
+        <v>12.67057201866626</v>
       </c>
       <c r="F218">
-        <v>13.21707471429164</v>
+        <v>13.48171214333728</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>12.53663376190876</v>
+        <v>12.94516465219096</v>
       </c>
       <c r="C219">
-        <v>12.58380390462407</v>
+        <v>12.49741592438106</v>
       </c>
       <c r="D219">
-        <v>13.27834173078551</v>
+        <v>12.60822984876511</v>
       </c>
       <c r="E219">
-        <v>12.62139526503733</v>
+        <v>12.60781519648773</v>
       </c>
       <c r="F219">
-        <v>13.15688469303598</v>
+        <v>13.42667611620606</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>12.47515065969364</v>
+        <v>12.8834535828122</v>
       </c>
       <c r="C220">
-        <v>12.52127219781681</v>
+        <v>12.43484505758602</v>
       </c>
       <c r="D220">
-        <v>13.22183824323399</v>
+        <v>12.54543813443846</v>
       </c>
       <c r="E220">
-        <v>12.55887119807652</v>
+        <v>12.54505335641593</v>
       </c>
       <c r="F220">
-        <v>13.09659634698268</v>
+        <v>13.37147059928043</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>12.41365702089532</v>
+        <v>12.82170318814691</v>
       </c>
       <c r="C221">
-        <v>12.45873948461102</v>
+        <v>12.3722849880129</v>
       </c>
       <c r="D221">
-        <v>13.16519782797219</v>
+        <v>12.48264532469697</v>
       </c>
       <c r="E221">
-        <v>12.49634253019324</v>
+        <v>12.4822888574161</v>
       </c>
       <c r="F221">
-        <v>13.03621382910183</v>
+        <v>13.31610041133652</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>12.35215521169515</v>
+        <v>12.75991659775229</v>
       </c>
       <c r="C222">
-        <v>12.39620797513485</v>
+        <v>12.30973761774634</v>
       </c>
       <c r="D222">
-        <v>13.10842507078156</v>
+        <v>12.41985363305194</v>
       </c>
       <c r="E222">
-        <v>12.43381156648659</v>
+        <v>12.41952397740545</v>
       </c>
       <c r="F222">
-        <v>12.97574117427178</v>
+        <v>13.26057027288481</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>12.29064751370577</v>
+        <v>12.69809684002396</v>
       </c>
       <c r="C223">
-        <v>12.33367979642867</v>
+        <v>12.24720477294764</v>
       </c>
       <c r="D223">
-        <v>13.05152446783708</v>
+        <v>12.35706519922175</v>
       </c>
       <c r="E223">
-        <v>12.37128051936316</v>
+        <v>12.35676090673968</v>
       </c>
       <c r="F223">
-        <v>12.91518232275305</v>
+        <v>13.20488480663627</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>12.22913613093099</v>
+        <v>12.63624685596753</v>
       </c>
       <c r="C224">
-        <v>12.27115699901239</v>
+        <v>12.18468821625476</v>
       </c>
       <c r="D224">
-        <v>12.9945003891273</v>
+        <v>12.29428207977038</v>
       </c>
       <c r="E224">
-        <v>12.30875153670275</v>
+        <v>12.29400176330139</v>
       </c>
       <c r="F224">
-        <v>12.85454111457927</v>
+        <v>13.14904854091069</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>12.16762320098281</v>
+        <v>12.57436949836167</v>
       </c>
       <c r="C225">
-        <v>12.20864156434794</v>
+        <v>12.12218963897359</v>
       </c>
       <c r="D225">
-        <v>12.93735714481009</v>
+        <v>12.23150625920772</v>
       </c>
       <c r="E225">
-        <v>12.24622668841816</v>
+        <v>12.2312485874017</v>
       </c>
       <c r="F225">
-        <v>12.79382129097253</v>
+        <v>13.09306590830716</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>12.10611078648784</v>
+        <v>12.51246752743259</v>
       </c>
       <c r="C226">
-        <v>12.14613539836275</v>
+        <v>12.05971066605621</v>
       </c>
       <c r="D226">
-        <v>12.88009892236467</v>
+        <v>12.16873965721576</v>
       </c>
       <c r="E226">
-        <v>12.18370796502749</v>
+        <v>12.16850333835485</v>
       </c>
       <c r="F226">
-        <v>12.7330264748725</v>
+        <v>13.03694124914497</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>12.04460087332811</v>
+        <v>12.45054362434956</v>
       </c>
       <c r="C227">
-        <v>12.08364034013692</v>
+        <v>11.99725286887152</v>
       </c>
       <c r="D227">
-        <v>12.82272984013361</v>
+        <v>12.10598412596816</v>
       </c>
       <c r="E227">
-        <v>12.12119729022296</v>
+        <v>12.1057679164301</v>
       </c>
       <c r="F227">
-        <v>12.67216021924803</v>
+        <v>12.98067881417264</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>11.98309539139707</v>
+        <v>12.38860038934997</v>
       </c>
       <c r="C228">
-        <v>12.02115816547189</v>
+        <v>11.93481775973397</v>
       </c>
       <c r="D228">
-        <v>12.76525391080595</v>
+        <v>12.04324144093519</v>
       </c>
       <c r="E228">
-        <v>12.05869652390492</v>
+        <v>12.04304415324333</v>
       </c>
       <c r="F228">
-        <v>12.61122597974395</v>
+        <v>12.92428276470217</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>11.92159620379255</v>
+        <v>12.32664033801083</v>
       </c>
       <c r="C229">
-        <v>11.95869058139654</v>
+        <v>11.87240678813725</v>
       </c>
       <c r="D229">
-        <v>12.7076750670877</v>
+        <v>11.98051331128819</v>
       </c>
       <c r="E229">
-        <v>11.99620745620432</v>
+        <v>11.98033381665637</v>
       </c>
       <c r="F229">
-        <v>12.55022712226083</v>
+        <v>12.86775717416497</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>11.86010510109978</v>
+        <v>12.26466591441015</v>
       </c>
       <c r="C230">
-        <v>11.89623923693348</v>
+        <v>11.81002133679221</v>
       </c>
       <c r="D230">
-        <v>12.64999715870121</v>
+        <v>11.91780140584758</v>
       </c>
       <c r="E230">
-        <v>11.93373181002532</v>
+        <v>11.91763858430336</v>
       </c>
       <c r="F230">
-        <v>12.48916690811143</v>
+        <v>12.81110603340011</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>11.79862382420457</v>
+        <v>12.20267948837176</v>
       </c>
       <c r="C231">
-        <v>11.83380572288159</v>
+        <v>11.74766276215689</v>
       </c>
       <c r="D231">
-        <v>12.5922239446921</v>
+        <v>11.85510733026995</v>
       </c>
       <c r="E231">
-        <v>11.87127125578194</v>
+        <v>11.85496010967936</v>
       </c>
       <c r="F231">
-        <v>12.42804853527703</v>
+        <v>12.75433324960057</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>11.73715405336248</v>
+        <v>12.14068335229768</v>
       </c>
       <c r="C232">
-        <v>11.77139156736311</v>
+        <v>11.68533236434502</v>
       </c>
       <c r="D232">
-        <v>12.5343590987166</v>
+        <v>11.7924326208849</v>
       </c>
       <c r="E232">
-        <v>11.80882740230606</v>
+        <v>11.7922999792946</v>
       </c>
       <c r="F232">
-        <v>12.36687511277162</v>
+        <v>12.69744264854331</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>11.67569740750277</v>
+        <v>12.07867973394519</v>
       </c>
       <c r="C233">
-        <v>11.70899824855857</v>
+        <v>11.62303138971638</v>
       </c>
       <c r="D233">
-        <v>12.47640621444241</v>
+        <v>11.72977873690697</v>
       </c>
       <c r="E233">
-        <v>11.74640179289833</v>
+        <v>11.72965972729215</v>
       </c>
       <c r="F233">
-        <v>12.30564966729446</v>
+        <v>12.64043797626687</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>11.61425545223653</v>
+        <v>12.01667079293883</v>
       </c>
       <c r="C234">
-        <v>11.64662719007429</v>
+        <v>11.56076100193244</v>
       </c>
       <c r="D234">
-        <v>12.41836880864639</v>
+        <v>11.66714712915942</v>
       </c>
       <c r="E234">
-        <v>11.68399592661732</v>
+        <v>11.66704078671423</v>
       </c>
       <c r="F234">
-        <v>12.24437513517697</v>
+        <v>12.5833229007572</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>11.55282970380079</v>
+        <v>11.95465861810548</v>
       </c>
       <c r="C235">
-        <v>11.58427975570112</v>
+        <v>11.49852237252048</v>
       </c>
       <c r="D235">
-        <v>12.36025032398627</v>
+        <v>11.60453918300688</v>
       </c>
       <c r="E235">
-        <v>11.62161124725203</v>
+        <v>11.60444458794009</v>
       </c>
       <c r="F235">
-        <v>12.18305439249846</v>
+        <v>12.52610101376032</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>11.49142162427777</v>
+        <v>11.89264523985513</v>
       </c>
       <c r="C236">
-        <v>11.52195727012294</v>
+        <v>11.43631661307027</v>
       </c>
       <c r="D236">
-        <v>12.30205412450703</v>
+        <v>11.54195622960181</v>
       </c>
       <c r="E236">
-        <v>11.5592491399678</v>
+        <v>11.54187250269973</v>
       </c>
       <c r="F236">
-        <v>12.1216902358362</v>
+        <v>12.46877583287858</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>11.43003262260893</v>
+        <v>11.8306326259083</v>
       </c>
       <c r="C237">
-        <v>11.45966100886253</v>
+        <v>11.37414479342752</v>
       </c>
       <c r="D237">
-        <v>12.24378349848131</v>
+        <v>11.47939952333098</v>
       </c>
       <c r="E237">
-        <v>11.49691094680856</v>
+        <v>11.47932585332203</v>
       </c>
       <c r="F237">
-        <v>12.06028538616423</v>
+        <v>12.41135079975418</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>11.36866406609377</v>
+        <v>11.76862267495855</v>
       </c>
       <c r="C238">
-        <v>11.39739220358141</v>
+        <v>11.3120079054174</v>
       </c>
       <c r="D238">
-        <v>12.18544166155067</v>
+        <v>11.41687031458587</v>
       </c>
       <c r="E238">
-        <v>11.4345979624226</v>
+        <v>11.41680588647583</v>
       </c>
       <c r="F238">
-        <v>11.99884248723038</v>
+        <v>12.35382928262967</v>
       </c>
     </row>
   </sheetData>
